--- a/sriramModel-nelson-atypical-patientID_10-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_10-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.08177772927831</v>
+        <v>23.07401354103592</v>
       </c>
       <c r="C2">
-        <v>23.07348790677084</v>
+        <v>23.12456113907425</v>
       </c>
       <c r="D2">
-        <v>23.10679379951692</v>
+        <v>23.16082557232196</v>
       </c>
       <c r="E2">
-        <v>23.12999248741812</v>
+        <v>23.09056895641327</v>
       </c>
       <c r="F2">
-        <v>23.05796489278516</v>
+        <v>23.06767995950911</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.06655144388455</v>
+        <v>23.05175378121317</v>
       </c>
       <c r="C3">
-        <v>23.05127809789559</v>
+        <v>23.15070159865452</v>
       </c>
       <c r="D3">
-        <v>23.11744392562387</v>
+        <v>23.22162999439111</v>
       </c>
       <c r="E3">
-        <v>23.16347394954104</v>
+        <v>23.08470227835726</v>
       </c>
       <c r="F3">
-        <v>23.01964431192512</v>
+        <v>23.03928111068011</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.05430489237286</v>
+        <v>23.03316151313178</v>
       </c>
       <c r="C4">
-        <v>23.03333339397281</v>
+        <v>23.17840051724748</v>
       </c>
       <c r="D4">
-        <v>23.13188729257322</v>
+        <v>23.28240716608815</v>
       </c>
       <c r="E4">
-        <v>23.20024852153641</v>
+        <v>23.08235852112048</v>
       </c>
       <c r="F4">
-        <v>22.98500463848533</v>
+        <v>23.01478084415293</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.0450219341671</v>
+        <v>23.01818079388977</v>
       </c>
       <c r="C5">
-        <v>23.01961722821531</v>
+        <v>23.20763725249969</v>
       </c>
       <c r="D5">
-        <v>23.15006064772311</v>
+        <v>23.34315079322677</v>
       </c>
       <c r="E5">
-        <v>23.24012266949886</v>
+        <v>23.08349504221312</v>
       </c>
       <c r="F5">
-        <v>22.95401310708447</v>
+        <v>22.99415563253302</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.03868673981291</v>
+        <v>23.00675862386748</v>
       </c>
       <c r="C6">
-        <v>23.01009367909683</v>
+        <v>23.23839152442688</v>
       </c>
       <c r="D6">
-        <v>23.17190052504924</v>
+        <v>23.4038544246921</v>
       </c>
       <c r="E6">
-        <v>23.28290523608791</v>
+        <v>23.08806802315331</v>
       </c>
       <c r="F6">
-        <v>22.92663781745938</v>
+        <v>22.97738119269542</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.03528375862713</v>
+        <v>22.99884476883503</v>
       </c>
       <c r="C7">
-        <v>23.00472738742817</v>
+        <v>23.2706433427927</v>
       </c>
       <c r="D7">
-        <v>23.19734312667757</v>
+        <v>23.46451139723144</v>
       </c>
       <c r="E7">
-        <v>23.3284074589481</v>
+        <v>23.09603244912769</v>
       </c>
       <c r="F7">
-        <v>22.90284765425032</v>
+        <v>22.96443235839953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.03479770327378</v>
+        <v>22.99439144985426</v>
       </c>
       <c r="C8">
-        <v>23.00348338684122</v>
+        <v>23.30437294714389</v>
       </c>
       <c r="D8">
-        <v>23.22632412484011</v>
+        <v>23.52511483823495</v>
       </c>
       <c r="E8">
-        <v>23.37644308445507</v>
+        <v>23.10734196006846</v>
       </c>
       <c r="F8">
-        <v>22.88261222843202</v>
+        <v>22.95528301230192</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.03721353373744</v>
+        <v>22.9933531551397</v>
       </c>
       <c r="C9">
-        <v>23.00632692585502</v>
+        <v>23.33956079816037</v>
       </c>
       <c r="D9">
-        <v>23.25877849001563</v>
+        <v>23.58565764816875</v>
       </c>
       <c r="E9">
-        <v>23.42682848715156</v>
+        <v>23.12194882610467</v>
       </c>
       <c r="F9">
-        <v>22.86590179420881</v>
+        <v>22.94990607070694</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.04251644775227</v>
+        <v>22.99568647182831</v>
       </c>
       <c r="C10">
-        <v>23.01322329916212</v>
+        <v>23.37618754462538</v>
       </c>
       <c r="D10">
-        <v>23.2946403347663</v>
+        <v>23.6461324682855</v>
       </c>
       <c r="E10">
-        <v>23.47938277680168</v>
+        <v>23.13980387073046</v>
       </c>
       <c r="F10">
-        <v>22.85268717082758</v>
+        <v>22.94827339121856</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.05069184464673</v>
+        <v>23.00134991565176</v>
       </c>
       <c r="C11">
-        <v>23.02413763807454</v>
+        <v>23.41423398356046</v>
       </c>
       <c r="D11">
-        <v>23.3338426868232</v>
+        <v>23.70653166465036</v>
       </c>
       <c r="E11">
-        <v>23.53392789687047</v>
+        <v>23.16085637983149</v>
       </c>
       <c r="F11">
-        <v>22.84293966915528</v>
+        <v>22.95035568311499</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.06172530148825</v>
+        <v>23.01030377518452</v>
       </c>
       <c r="C12">
-        <v>23.03903463429323</v>
+        <v>23.45368102856798</v>
       </c>
       <c r="D12">
-        <v>23.376317341402</v>
+        <v>23.76684731520284</v>
       </c>
       <c r="E12">
-        <v>23.59028867889056</v>
+        <v>23.1850540209583</v>
       </c>
       <c r="F12">
-        <v>22.83663101795699</v>
+        <v>22.95612242076234</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.07560254643566</v>
+        <v>23.02250999099733</v>
       </c>
       <c r="C13">
-        <v>23.05787823916277</v>
+        <v>23.49450968020372</v>
       </c>
       <c r="D13">
-        <v>23.42199465467606</v>
+        <v>23.82707118905151</v>
       </c>
       <c r="E13">
-        <v>23.64829292913611</v>
+        <v>23.21234274140902</v>
       </c>
       <c r="F13">
-        <v>22.83373328637237</v>
+        <v>22.96554175804483</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.09230942591271</v>
+        <v>23.03793203766767</v>
       </c>
       <c r="C14">
-        <v>23.08063132771674</v>
+        <v>23.5367009924808</v>
       </c>
       <c r="D14">
-        <v>23.47080329466222</v>
+        <v>23.88719471988043</v>
       </c>
       <c r="E14">
-        <v>23.70777148959656</v>
+        <v>23.24266666137157</v>
       </c>
       <c r="F14">
-        <v>22.8342188024147</v>
+        <v>22.97858043652194</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.11183186786768</v>
+        <v>23.05653481180648</v>
       </c>
       <c r="C15">
-        <v>23.10725530985126</v>
+        <v>23.58023603507282</v>
       </c>
       <c r="D15">
-        <v>23.52267000987785</v>
+        <v>23.94720897365466</v>
       </c>
       <c r="E15">
-        <v>23.76855828184043</v>
+        <v>23.27596796908296</v>
       </c>
       <c r="F15">
-        <v>22.8380600677634</v>
+        <v>22.99520368087198</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.13415583461172</v>
+        <v>23.07828454080636</v>
       </c>
       <c r="C16">
-        <v>23.13770968167543</v>
+        <v>23.62509585939827</v>
       </c>
       <c r="D16">
-        <v>23.57751940910622</v>
+        <v>24.00710461741957</v>
       </c>
       <c r="E16">
-        <v>23.83049043990462</v>
+        <v>23.31218681037328</v>
       </c>
       <c r="F16">
-        <v>22.84522966835707</v>
+        <v>23.01537507955789</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.15926726436809</v>
+        <v>23.10314868919084</v>
       </c>
       <c r="C17">
-        <v>23.17195151449534</v>
+        <v>23.67126145747329</v>
       </c>
       <c r="D17">
-        <v>23.63527360982517</v>
+        <v>24.06687192239182</v>
       </c>
       <c r="E17">
-        <v>23.89340829832234</v>
+        <v>23.35126116978309</v>
       </c>
       <c r="F17">
-        <v>22.85570017973149</v>
+        <v>23.03905647906025</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.18715200064626</v>
+        <v>23.13109587979935</v>
       </c>
       <c r="C18">
-        <v>23.20993487806015</v>
+        <v>23.71871372173791</v>
       </c>
       <c r="D18">
-        <v>23.695852001824</v>
+        <v>24.12650069406664</v>
       </c>
       <c r="E18">
-        <v>23.95715546766899</v>
+        <v>23.39312674346012</v>
       </c>
       <c r="F18">
-        <v>22.86944406594281</v>
+        <v>23.06620783572215</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.21779570532823</v>
+        <v>23.16209581988097</v>
       </c>
       <c r="C19">
-        <v>23.25161019348852</v>
+        <v>23.76743340711223</v>
       </c>
       <c r="D19">
-        <v>23.75917091595051</v>
+        <v>24.18598023864432</v>
       </c>
       <c r="E19">
-        <v>24.02157883641139</v>
+        <v>23.43771679262388</v>
       </c>
       <c r="F19">
-        <v>22.88643357095988</v>
+        <v>23.09678711358391</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.25118375707892</v>
+        <v>23.19611922870961</v>
       </c>
       <c r="C20">
-        <v>23.29692351159212</v>
+        <v>23.81740106550125</v>
       </c>
       <c r="D20">
-        <v>23.82514332395979</v>
+        <v>24.24529932432798</v>
       </c>
       <c r="E20">
-        <v>24.08652861089972</v>
+        <v>23.48496200190787</v>
       </c>
       <c r="F20">
-        <v>22.9066406013633</v>
+        <v>23.13075010391228</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.28730111803699</v>
+        <v>23.23313777736868</v>
       </c>
       <c r="C21">
-        <v>23.34581571359025</v>
+        <v>23.86859702401711</v>
       </c>
       <c r="D21">
-        <v>23.8936784854336</v>
+        <v>24.30444612984867</v>
       </c>
       <c r="E21">
-        <v>24.15185834380939</v>
+        <v>23.53479035014991</v>
       </c>
       <c r="F21">
-        <v>22.93003659902151</v>
+        <v>23.1680502703792</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.32613217194907</v>
+        <v>23.27312402482604</v>
       </c>
       <c r="C22">
-        <v>23.39822163273688</v>
+        <v>23.92100129513656</v>
       </c>
       <c r="D22">
-        <v>23.96468147916472</v>
+        <v>24.36340820988138</v>
       </c>
       <c r="E22">
-        <v>24.21742495236579</v>
+        <v>23.58712702617601</v>
       </c>
       <c r="F22">
-        <v>22.95659240218004</v>
+        <v>23.20863860530326</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.36766052132395</v>
+        <v>23.31605136136842</v>
       </c>
       <c r="C23">
-        <v>23.45406909527939</v>
+        <v>23.97459354886083</v>
       </c>
       <c r="D23">
-        <v>24.03805281726645</v>
+        <v>24.42217243781938</v>
       </c>
       <c r="E23">
-        <v>24.28308873457224</v>
+        <v>23.64189407339139</v>
       </c>
       <c r="F23">
-        <v>22.98627809312483</v>
+        <v>23.25246337283388</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.41186873521397</v>
+        <v>23.36189395429053</v>
       </c>
       <c r="C24">
-        <v>23.51327787801509</v>
+        <v>24.02935302002426</v>
       </c>
       <c r="D24">
-        <v>24.11368795023823</v>
+        <v>24.48072494392902</v>
       </c>
       <c r="E24">
-        <v>24.34871337144554</v>
+        <v>23.69901043881021</v>
       </c>
       <c r="F24">
-        <v>23.01906283025242</v>
+        <v>23.29947000267822</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45873804590843</v>
+        <v>23.41062669039746</v>
       </c>
       <c r="C25">
-        <v>23.57575863195779</v>
+        <v>24.08525845231705</v>
       </c>
       <c r="D25">
-        <v>24.19147686362191</v>
+        <v>24.53905105170335</v>
       </c>
       <c r="E25">
-        <v>24.41416593604109</v>
+        <v>23.75839155026998</v>
       </c>
       <c r="F25">
-        <v>23.05491466169557</v>
+        <v>23.34960077287786</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>23.50824796261814</v>
+        <v>23.46222512458693</v>
       </c>
       <c r="C26">
-        <v>23.64141168218522</v>
+        <v>24.14228801295706</v>
       </c>
       <c r="D26">
-        <v>24.27130347759301</v>
+        <v>24.59713519595436</v>
       </c>
       <c r="E26">
-        <v>24.47931687253632</v>
+        <v>23.8199492651316</v>
       </c>
       <c r="F26">
-        <v>23.09380031765978</v>
+        <v>23.40279465849327</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>23.56037579286934</v>
+        <v>23.51666542019009</v>
       </c>
       <c r="C27">
-        <v>23.71012581107473</v>
+        <v>24.20041917786541</v>
       </c>
       <c r="D27">
-        <v>24.35304500713508</v>
+        <v>24.65496084952649</v>
       </c>
       <c r="E27">
-        <v>24.54403999170389</v>
+        <v>23.88359162234929</v>
       </c>
       <c r="F27">
-        <v>23.13568498008852</v>
+        <v>23.45898702334378</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>23.61509605815365</v>
+        <v>23.57392428782924</v>
       </c>
       <c r="C28">
-        <v>23.78177699263944</v>
+        <v>24.25962868140415</v>
       </c>
       <c r="D28">
-        <v>24.43657136626796</v>
+        <v>24.71251043502056</v>
       </c>
       <c r="E28">
-        <v>24.60821245695871</v>
+        <v>23.94922264739586</v>
       </c>
       <c r="F28">
-        <v>23.18053201841545</v>
+        <v>23.51810934061611</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.67237977048495</v>
+        <v>23.633978918514</v>
       </c>
       <c r="C29">
-        <v>23.85622710526662</v>
+        <v>24.31989231793131</v>
       </c>
       <c r="D29">
-        <v>24.52174441500582</v>
+        <v>24.76976523154512</v>
       </c>
       <c r="E29">
-        <v>24.67171475660258</v>
+        <v>24.01674211661934</v>
       </c>
       <c r="F29">
-        <v>23.22830269313966</v>
+        <v>23.58008895722656</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>23.73219356191893</v>
+        <v>23.69680689827177</v>
       </c>
       <c r="C30">
-        <v>23.93332264565184</v>
+        <v>24.38118491389743</v>
       </c>
       <c r="D30">
-        <v>24.60841741254322</v>
+        <v>24.82670526282836</v>
       </c>
       <c r="E30">
-        <v>24.73443067739876</v>
+        <v>24.08604534174072</v>
       </c>
       <c r="F30">
-        <v>23.27895581655671</v>
+        <v>23.64484863187848</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>23.7944986338007</v>
+        <v>23.76238611377415</v>
       </c>
       <c r="C31">
-        <v>24.01289347130589</v>
+        <v>24.44348006864861</v>
       </c>
       <c r="D31">
-        <v>24.69643402371358</v>
+        <v>24.88330917911808</v>
       </c>
       <c r="E31">
-        <v>24.7962472741197</v>
+        <v>24.15702287058148</v>
       </c>
       <c r="F31">
-        <v>23.33244736287048</v>
+        <v>23.71230635147327</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>23.85924943116506</v>
+        <v>23.83069462722915</v>
       </c>
       <c r="C32">
-        <v>24.0947516036437</v>
+        <v>24.50675002473508</v>
       </c>
       <c r="D32">
-        <v>24.78562754891449</v>
+        <v>24.93955412906825</v>
       </c>
       <c r="E32">
-        <v>24.85705482886985</v>
+        <v>24.22956028046202</v>
       </c>
       <c r="F32">
-        <v>23.38873001709912</v>
+        <v>23.7823747539831</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>23.92639210770548</v>
+        <v>23.90171049488245</v>
       </c>
       <c r="C33">
-        <v>24.1786901281485</v>
+        <v>24.57096545697903</v>
       </c>
       <c r="D33">
-        <v>24.8758199612084</v>
+        <v>24.99541561736713</v>
       </c>
       <c r="E33">
-        <v>24.91674680412305</v>
+        <v>24.30353785418585</v>
       </c>
       <c r="F33">
-        <v>23.44775264958444</v>
+        <v>23.8549608613811</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>23.99586267577945</v>
+        <v>23.97541155087666</v>
       </c>
       <c r="C34">
-        <v>24.26448223220569</v>
+        <v>24.63609524347713</v>
       </c>
       <c r="D34">
-        <v>24.96682061791889</v>
+        <v>25.05086734227256</v>
       </c>
       <c r="E34">
-        <v>24.9752197954401</v>
+        <v>24.37883032160774</v>
       </c>
       <c r="F34">
-        <v>23.50945969961414</v>
+        <v>23.92996552233157</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>24.06758480536296</v>
+        <v>24.05177509747767</v>
       </c>
       <c r="C35">
-        <v>24.35188042464659</v>
+        <v>24.70210618266561</v>
       </c>
       <c r="D35">
-        <v>25.05842542305871</v>
+        <v>25.10588102430143</v>
       </c>
       <c r="E35">
-        <v>25.03237348182261</v>
+        <v>24.45530658659714</v>
       </c>
       <c r="F35">
-        <v>23.57379044747741</v>
+        <v>24.00728289034515</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>24.14146736955167</v>
+        <v>24.13077747176794</v>
       </c>
       <c r="C36">
-        <v>24.4406159835335</v>
+        <v>24.76896266126317</v>
       </c>
       <c r="D36">
-        <v>25.15041604945572</v>
+        <v>25.16042621873776</v>
       </c>
       <c r="E36">
-        <v>25.08811055951507</v>
+        <v>24.53282940294978</v>
       </c>
       <c r="F36">
-        <v>23.64067814894779</v>
+        <v>24.08680002377017</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>24.21740136948286</v>
+        <v>24.2123934552495</v>
       </c>
       <c r="C37">
-        <v>24.53039867994758</v>
+        <v>24.8366262743361</v>
       </c>
       <c r="D37">
-        <v>25.24255857874614</v>
+        <v>25.21447010890558</v>
       </c>
       <c r="E37">
-        <v>25.14233668190139</v>
+        <v>24.61125509790397</v>
       </c>
       <c r="F37">
-        <v>23.71004904693587</v>
+        <v>24.16839601814317</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>24.29525662640932</v>
+        <v>24.2965954831565</v>
       </c>
       <c r="C38">
-        <v>24.62091682521116</v>
+        <v>24.90505537255059</v>
       </c>
       <c r="D38">
-        <v>25.33460198227849</v>
+        <v>25.2679772748252</v>
       </c>
       <c r="E38">
-        <v>25.19496039543585</v>
+        <v>24.69043326270987</v>
       </c>
       <c r="F38">
-        <v>23.7818211328694</v>
+        <v>24.25194168204916</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>24.37487802243685</v>
+        <v>24.3833525681626</v>
       </c>
       <c r="C39">
-        <v>24.71183769472284</v>
+        <v>24.97420449820385</v>
       </c>
       <c r="D39">
-        <v>25.42627694901759</v>
+        <v>25.32090944888371</v>
       </c>
       <c r="E39">
-        <v>25.24589306225247</v>
+        <v>24.77020644786699</v>
       </c>
       <c r="F39">
-        <v>23.85590235265812</v>
+        <v>24.33729848932738</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24.4560813535311</v>
+        <v>24.4726289512465</v>
       </c>
       <c r="C40">
-        <v>24.80280834570252</v>
+        <v>25.04402374258735</v>
       </c>
       <c r="D40">
-        <v>25.5172949420862</v>
+        <v>25.37322525765107</v>
       </c>
       <c r="E40">
-        <v>25.29504878549514</v>
+        <v>24.85040988292308</v>
       </c>
       <c r="F40">
-        <v>23.93218905630993</v>
+        <v>24.42431807969364</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>24.53864903284886</v>
+        <v>24.56438225480786</v>
       </c>
       <c r="C41">
-        <v>24.89345688410315</v>
+        <v>25.11445800377073</v>
       </c>
       <c r="D41">
-        <v>25.60734709810201</v>
+        <v>25.42487993649016</v>
       </c>
       <c r="E41">
-        <v>25.34234432753235</v>
+        <v>24.93087118446602</v>
       </c>
       <c r="F41">
-        <v>24.01056397727499</v>
+        <v>24.51284127472924</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>24.62232538697043</v>
+        <v>24.65856125103857</v>
       </c>
       <c r="C42">
-        <v>24.98339421194063</v>
+        <v>25.18544594612511</v>
       </c>
       <c r="D42">
-        <v>25.69610306676185</v>
+        <v>25.47582502575614</v>
       </c>
       <c r="E42">
-        <v>25.38769902763521</v>
+        <v>25.01141014096189</v>
       </c>
       <c r="F42">
-        <v>24.09089290134266</v>
+        <v>24.60269725042417</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>24.70681224082719</v>
+        <v>24.75510299961594</v>
       </c>
       <c r="C43">
-        <v>25.07221625467281</v>
+        <v>25.25691888538546</v>
       </c>
       <c r="D43">
-        <v>25.78321010885323</v>
+        <v>25.52600806204745</v>
       </c>
       <c r="E43">
-        <v>25.43103473083732</v>
+        <v>25.09183843071323</v>
       </c>
       <c r="F43">
-        <v>24.17302142908569</v>
+        <v>24.69370246681701</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>24.79176482529056</v>
+        <v>24.85392927153095</v>
       </c>
       <c r="C44">
-        <v>25.159506681748</v>
+        <v>25.32879941744925</v>
       </c>
       <c r="D44">
-        <v>25.8682925887926</v>
+        <v>25.57537226095884</v>
       </c>
       <c r="E44">
-        <v>25.47227568488089</v>
+        <v>25.1719595387634</v>
       </c>
       <c r="F44">
-        <v>24.25677098951778</v>
+        <v>24.78565964639053</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>24.87678850601835</v>
+        <v>24.95494219925163</v>
       </c>
       <c r="C45">
-        <v>25.24484011021969</v>
+        <v>25.40099972049734</v>
       </c>
       <c r="D45">
-        <v>25.95095188852704</v>
+        <v>25.62385618448614</v>
       </c>
       <c r="E45">
-        <v>25.51134846099722</v>
+        <v>25.25156861707761</v>
       </c>
       <c r="F45">
-        <v>24.34193351816366</v>
+        <v>24.87835675577277</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>24.96143606556612</v>
+        <v>25.0580189320098</v>
       </c>
       <c r="C46">
-        <v>25.32778554080015</v>
+        <v>25.47341947606613</v>
       </c>
       <c r="D46">
-        <v>26.03076683314323</v>
+        <v>25.67139341975722</v>
       </c>
       <c r="E46">
-        <v>25.54818185188345</v>
+        <v>25.33045242532344</v>
       </c>
       <c r="F46">
-        <v>24.42826494739681</v>
+        <v>24.97156582625461</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>25.04520844765663</v>
+        <v>25.16300522747954</v>
       </c>
       <c r="C47">
-        <v>25.40791079836159</v>
+        <v>25.54594336527824</v>
       </c>
       <c r="D47">
-        <v>26.10729487425771</v>
+        <v>25.71791228011002</v>
       </c>
       <c r="E47">
-        <v>25.58270679098759</v>
+        <v>25.40838962152742</v>
       </c>
       <c r="F47">
-        <v>24.51547749688945</v>
+        <v>25.06504181674441</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>25.12755641392747</v>
+        <v>25.26970787412923</v>
       </c>
       <c r="C48">
-        <v>25.48478729945654</v>
+        <v>25.61843807423164</v>
       </c>
       <c r="D48">
-        <v>26.1800742845212</v>
+        <v>25.76333552426932</v>
       </c>
       <c r="E48">
-        <v>25.61485626270487</v>
+        <v>25.48515074897519</v>
       </c>
       <c r="F48">
-        <v>24.60323029694954</v>
+        <v>25.1585214093702</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>25.20788545037187</v>
+        <v>25.37788586276692</v>
       </c>
       <c r="C49">
-        <v>25.55799409159643</v>
+        <v>25.69074876759068</v>
       </c>
       <c r="D49">
-        <v>26.24862762696179</v>
+        <v>25.8075801200858</v>
       </c>
       <c r="E49">
-        <v>25.64456522121999</v>
+        <v>25.5604988694957</v>
       </c>
       <c r="F49">
-        <v>24.69111828782604</v>
+        <v>25.25172186323254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>25.28556432145676</v>
+        <v>25.48724063024848</v>
       </c>
       <c r="C50">
-        <v>25.62712317782961</v>
+        <v>25.76269496123212</v>
       </c>
       <c r="D50">
-        <v>26.31246676582579</v>
+        <v>25.85055709050127</v>
       </c>
       <c r="E50">
-        <v>25.67177051519375</v>
+        <v>25.63419009550017</v>
       </c>
       <c r="F50">
-        <v>24.77865975334215</v>
+        <v>25.34433998545328</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>25.35993742107713</v>
+        <v>25.5974058796049</v>
       </c>
       <c r="C51">
-        <v>25.69178491562474</v>
+        <v>25.83406580479836</v>
       </c>
       <c r="D51">
-        <v>26.37109970010048</v>
+        <v>25.89217144386177</v>
       </c>
       <c r="E51">
-        <v>25.69641081805786</v>
+        <v>25.70597480021497</v>
       </c>
       <c r="F51">
-        <v>24.86528299544263</v>
+        <v>25.43605133841281</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>25.43034036831683</v>
+        <v>25.7079358953938</v>
       </c>
       <c r="C52">
-        <v>25.75161234868851</v>
+        <v>25.90461542188064</v>
       </c>
       <c r="D52">
-        <v>26.42403926955018</v>
+        <v>25.9323221681451</v>
       </c>
       <c r="E52">
-        <v>25.71842656246086</v>
+        <v>25.77559879121231</v>
       </c>
       <c r="F52">
-        <v>24.95031357199463</v>
+        <v>25.52650963389398</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>25.50444965649562</v>
+        <v>25.81829508382056</v>
       </c>
       <c r="C53">
-        <v>25.81374554808639</v>
+        <v>25.97405826462579</v>
       </c>
       <c r="D53">
-        <v>26.47789211502955</v>
+        <v>25.97090241220106</v>
       </c>
       <c r="E53">
-        <v>25.74100073685762</v>
+        <v>25.84280485662706</v>
       </c>
       <c r="F53">
-        <v>25.04524234292424</v>
+        <v>25.61534655884267</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>25.58845386863966</v>
+        <v>25.92784969210327</v>
       </c>
       <c r="C54">
-        <v>25.88388835024191</v>
+        <v>26.04206548290586</v>
       </c>
       <c r="D54">
-        <v>26.53764257184353</v>
+        <v>26.00779981404662</v>
       </c>
       <c r="E54">
-        <v>25.76687032956735</v>
+        <v>25.90733487483593</v>
       </c>
       <c r="F54">
-        <v>25.15983761812189</v>
+        <v>25.70217254347845</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>25.67946175165722</v>
+        <v>26.03586240915985</v>
       </c>
       <c r="C55">
-        <v>25.95962387030692</v>
+        <v>26.1082635426665</v>
       </c>
       <c r="D55">
-        <v>26.60044525309147</v>
+        <v>26.04289693458908</v>
       </c>
       <c r="E55">
-        <v>25.79532551940476</v>
+        <v>25.96893243219794</v>
       </c>
       <c r="F55">
-        <v>25.2903896682666</v>
+        <v>25.78657820592496</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>25.77464608195188</v>
+        <v>26.14149215040312</v>
       </c>
       <c r="C56">
-        <v>26.03866687773748</v>
+        <v>26.17223614105111</v>
       </c>
       <c r="D56">
-        <v>26.66359057399297</v>
+        <v>26.07607208572212</v>
       </c>
       <c r="E56">
-        <v>25.82568106855438</v>
+        <v>26.02734589007312</v>
       </c>
       <c r="F56">
-        <v>25.43272555623409</v>
+        <v>25.86813682920945</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>25.87132324644829</v>
+        <v>26.24380145766451</v>
       </c>
       <c r="C57">
-        <v>26.11888843784113</v>
+        <v>26.23353073450027</v>
       </c>
       <c r="D57">
-        <v>26.72456640081073</v>
+        <v>26.10720011359265</v>
       </c>
       <c r="E57">
-        <v>25.85727650661527</v>
+        <v>26.08233189747371</v>
       </c>
       <c r="F57">
-        <v>25.58230059136413</v>
+        <v>25.94640845165659</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>25.96702597655583</v>
+        <v>26.34177373337141</v>
       </c>
       <c r="C58">
-        <v>26.19833915133481</v>
+        <v>26.29167026863377</v>
       </c>
       <c r="D58">
-        <v>26.78112585804275</v>
+        <v>26.13615342460237</v>
       </c>
       <c r="E58">
-        <v>25.88947629753864</v>
+        <v>26.13365932704367</v>
       </c>
       <c r="F58">
-        <v>25.73436515098773</v>
+        <v>26.0209456789197</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>26.05956444570248</v>
+        <v>26.43434136816317</v>
       </c>
       <c r="C59">
-        <v>26.27526900262693</v>
+        <v>26.34616892329157</v>
       </c>
       <c r="D59">
-        <v>26.83134653009013</v>
+        <v>26.16280326559135</v>
       </c>
       <c r="E59">
-        <v>25.92166943139636</v>
+        <v>26.18111354290946</v>
       </c>
       <c r="F59">
-        <v>25.88420089433109</v>
+        <v>26.09130153325124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>26.1470705755651</v>
+        <v>26.52042442892074</v>
       </c>
       <c r="C60">
-        <v>26.34814389565511</v>
+        <v>26.39655106286722</v>
       </c>
       <c r="D60">
-        <v>26.87368135597604</v>
+        <v>26.18702117015546</v>
       </c>
       <c r="E60">
-        <v>25.95327026356963</v>
+        <v>26.22450083163998</v>
       </c>
       <c r="F60">
-        <v>26.02740098807107</v>
+        <v>26.15703926006034</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>26.22802302268612</v>
+        <v>26.59897940392426</v>
       </c>
       <c r="C61">
-        <v>26.41565776142171</v>
+        <v>26.44237062168087</v>
       </c>
       <c r="D61">
-        <v>26.90699109200466</v>
+        <v>26.20868050818736</v>
       </c>
       <c r="E61">
-        <v>25.98371930036509</v>
+        <v>26.26365276667634</v>
       </c>
       <c r="F61">
-        <v>26.16014296941846</v>
+        <v>26.21774402305051</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>26.30125257734176</v>
+        <v>26.66905321018868</v>
       </c>
       <c r="C62">
-        <v>26.47673952067667</v>
+        <v>26.4832288689446</v>
       </c>
       <c r="D62">
-        <v>26.93055567730963</v>
+        <v>26.22765812375374</v>
       </c>
       <c r="E62">
-        <v>26.01248440434682</v>
+        <v>26.29843021298679</v>
       </c>
       <c r="F62">
-        <v>26.2794055122899</v>
+        <v>26.27303599747425</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>26.36592952100693</v>
+        <v>26.72983685984371</v>
       </c>
       <c r="C63">
-        <v>26.53055442190952</v>
+        <v>26.51878883861134</v>
       </c>
       <c r="D63">
-        <v>26.94405916501738</v>
+        <v>26.24383603909558</v>
       </c>
       <c r="E63">
-        <v>26.03906298555454</v>
+        <v>26.32872679493023</v>
       </c>
       <c r="F63">
-        <v>26.38308958091664</v>
+        <v>26.32258395926888</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>26.42153726002828</v>
+        <v>26.78071264635044</v>
       </c>
       <c r="C64">
-        <v>26.57649938283595</v>
+        <v>26.54878552931585</v>
       </c>
       <c r="D64">
-        <v>26.94755127518586</v>
+        <v>26.25710317749791</v>
       </c>
       <c r="E64">
-        <v>26.06298404526598</v>
+        <v>26.35447114366266</v>
       </c>
       <c r="F64">
-        <v>26.47002953947617</v>
+        <v>26.36611823595703</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>26.46783526834445</v>
+        <v>26.82128821326621</v>
       </c>
       <c r="C65">
-        <v>26.61419223767306</v>
+        <v>26.57303165429937</v>
       </c>
       <c r="D65">
-        <v>26.94138979139081</v>
+        <v>26.26735704178466</v>
       </c>
       <c r="E65">
-        <v>26.08381118279932</v>
+        <v>26.37562827934316</v>
       </c>
       <c r="F65">
-        <v>26.53990720688404</v>
+        <v>26.40344127867362</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>26.50481515345804</v>
+        <v>26.8514112089244</v>
       </c>
       <c r="C66">
-        <v>26.6434552196025</v>
+        <v>26.59141916512974</v>
       </c>
       <c r="D66">
-        <v>26.92616990478857</v>
+        <v>26.27450529889838</v>
       </c>
       <c r="E66">
-        <v>26.10114648125795</v>
+        <v>26.3921996450727</v>
       </c>
       <c r="F66">
-        <v>26.59309962791145</v>
+        <v>26.43443488294978</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>26.53265681147127</v>
+        <v>26.87116667521861</v>
       </c>
       <c r="C67">
-        <v>26.6642934346657</v>
+        <v>26.60391705878873</v>
       </c>
       <c r="D67">
-        <v>26.90264969329465</v>
+        <v>26.27846723016506</v>
       </c>
       <c r="E67">
-        <v>26.11463498211548</v>
+        <v>26.40422182739781</v>
       </c>
       <c r="F67">
-        <v>26.63049751889494</v>
+        <v>26.45906318777821</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>26.55168501391102</v>
+        <v>26.8808559604199</v>
       </c>
       <c r="C68">
-        <v>26.6768692612912</v>
+        <v>26.61056617212452</v>
       </c>
       <c r="D68">
-        <v>26.87167942500124</v>
+        <v>26.27917501166968</v>
       </c>
       <c r="E68">
-        <v>26.12396983306988</v>
+        <v>26.41176400410954</v>
       </c>
       <c r="F68">
-        <v>26.6533260793919</v>
+        <v>26.4773707048194</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>26.56232913302795</v>
+        <v>26.88096109600384</v>
       </c>
       <c r="C69">
-        <v>26.6814751056292</v>
+        <v>26.61147189594203</v>
       </c>
       <c r="D69">
-        <v>26.83414040080805</v>
+        <v>26.276574789815</v>
       </c>
       <c r="E69">
-        <v>26.12889791018049</v>
+        <v>26.41492448368554</v>
       </c>
       <c r="F69">
-        <v>26.66298951748032</v>
+        <v>26.48947610699979</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>26.56508888339076</v>
+        <v>26.87210185950574</v>
       </c>
       <c r="C70">
-        <v>26.67850338251137</v>
+        <v>26.60679526049822</v>
       </c>
       <c r="D70">
-        <v>26.79089703062001</v>
+        <v>26.2706275228046</v>
       </c>
       <c r="E70">
-        <v>26.12922554061424</v>
+        <v>26.41382654488847</v>
       </c>
       <c r="F70">
-        <v>26.66094915555868</v>
+        <v>26.49556242386655</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>26.56050497357008</v>
+        <v>26.85499034341935</v>
       </c>
       <c r="C71">
-        <v>26.66841889312754</v>
+        <v>26.59674307513774</v>
       </c>
       <c r="D71">
-        <v>26.74276287183415</v>
+        <v>26.26130956889194</v>
       </c>
       <c r="E71">
-        <v>26.12482367413815</v>
+        <v>26.4086138851214</v>
       </c>
       <c r="F71">
-        <v>26.64863646775456</v>
+        <v>26.49586519553268</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>26.5491356053795</v>
+        <v>26.83038806071146</v>
       </c>
       <c r="C72">
-        <v>26.65173316599939</v>
+        <v>26.58155807288436</v>
       </c>
       <c r="D72">
-        <v>26.69047957583685</v>
+        <v>26.2486130156994</v>
       </c>
       <c r="E72">
-        <v>26.11563176944814</v>
+        <v>26.39944599097804</v>
       </c>
       <c r="F72">
-        <v>26.62739698915177</v>
+        <v>26.49065964150827</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>26.53153841116869</v>
+        <v>26.79906907234016</v>
       </c>
       <c r="C73">
-        <v>26.62898091202759</v>
+        <v>26.56150944395272</v>
       </c>
       <c r="D73">
-        <v>26.63470650716395</v>
+        <v>26.23254575120508</v>
       </c>
       <c r="E73">
-        <v>26.10165947749971</v>
+        <v>26.38649366842296</v>
       </c>
       <c r="F73">
-        <v>26.59845877393914</v>
+        <v>26.48024816958685</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>26.5082569768008</v>
+        <v>26.76179068726856</v>
       </c>
       <c r="C74">
-        <v>26.60070113715688</v>
+        <v>26.53688399434151</v>
       </c>
       <c r="D74">
-        <v>26.57601849622672</v>
+        <v>26.21313128448545</v>
       </c>
       <c r="E74">
-        <v>26.0829853873699</v>
+        <v>26.3699349474332</v>
       </c>
       <c r="F74">
-        <v>26.56291879808442</v>
+        <v>26.46494903577954</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>26.47981137367971</v>
+        <v>26.71927220030819</v>
       </c>
       <c r="C75">
-        <v>26.56742179240008</v>
+        <v>26.50797820995334</v>
       </c>
       <c r="D75">
-        <v>26.51490895660531</v>
+        <v>26.1904083298325</v>
       </c>
       <c r="E75">
-        <v>26.05975217687393</v>
+        <v>26.34995148272871</v>
       </c>
       <c r="F75">
-        <v>26.5217415001274</v>
+        <v>26.44508665501333</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>26.44669189526434</v>
+        <v>26.67218094972464</v>
       </c>
       <c r="C76">
-        <v>26.52964850336687</v>
+        <v>26.47509150993915</v>
       </c>
       <c r="D76">
-        <v>26.45179635348804</v>
+        <v>26.16443017659654</v>
       </c>
       <c r="E76">
-        <v>26.03215851472283</v>
+        <v>26.3267254957209</v>
       </c>
       <c r="F76">
-        <v>26.47576491475304</v>
+        <v>26.42098372306863</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>26.40935546711585</v>
+        <v>26.62112457044559</v>
       </c>
       <c r="C77">
-        <v>26.48785679179226</v>
+        <v>26.43852066620255</v>
       </c>
       <c r="D77">
-        <v>26.38703233617424</v>
+        <v>26.1352638745043</v>
       </c>
       <c r="E77">
-        <v>26.00044796735459</v>
+        <v>26.30043725574811</v>
       </c>
       <c r="F77">
-        <v>26.4257109596184</v>
+        <v>26.39295519837244</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>26.36822390898163</v>
+        <v>26.56664806232914</v>
       </c>
       <c r="C78">
-        <v>26.44248732291254</v>
+        <v>26.39855526694009</v>
       </c>
       <c r="D78">
-        <v>26.32091035034466</v>
+        <v>26.10298926347343</v>
       </c>
       <c r="E78">
-        <v>25.96489642104615</v>
+        <v>26.27126310917739</v>
       </c>
       <c r="F78">
-        <v>26.37219745696964</v>
+        <v>26.36130389514821</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>26.32368376243953</v>
+        <v>26.50923439904317</v>
       </c>
       <c r="C79">
-        <v>26.39394359981862</v>
+        <v>26.3554743093929</v>
       </c>
       <c r="D79">
-        <v>26.25367401866297</v>
+        <v>26.06769788014218</v>
       </c>
       <c r="E79">
-        <v>25.92579911059414</v>
+        <v>26.2393739840395</v>
       </c>
       <c r="F79">
-        <v>26.31575092225256</v>
+        <v>26.32631752476851</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>26.27608707631389</v>
+        <v>26.44930745688971</v>
       </c>
       <c r="C80">
-        <v>26.34259137724272</v>
+        <v>26.30954371313478</v>
       </c>
       <c r="D80">
-        <v>26.18552493626821</v>
+        <v>26.02949177586595</v>
       </c>
       <c r="E80">
-        <v>25.88345864104707</v>
+        <v>26.20493430410998</v>
       </c>
       <c r="F80">
-        <v>26.25681889095096</v>
+        <v>26.28826690106412</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>26.22575280623369</v>
+        <v>26.3872364164831</v>
       </c>
       <c r="C81">
-        <v>26.28875968307045</v>
+        <v>26.26101461249337</v>
       </c>
       <c r="D81">
-        <v>26.11662955582015</v>
+        <v>25.98848228018722</v>
       </c>
       <c r="E81">
-        <v>25.83817484165685</v>
+        <v>26.16810124673535</v>
       </c>
       <c r="F81">
-        <v>26.19578089276695</v>
+        <v>26.24740503260459</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>26.17296880864867</v>
+        <v>26.32334082720986</v>
       </c>
       <c r="C82">
-        <v>26.23274272743866</v>
+        <v>26.21012235771941</v>
       </c>
       <c r="D82">
-        <v>26.04712511451839</v>
+        <v>25.94478873800832</v>
       </c>
       <c r="E82">
-        <v>25.79023695825846</v>
+        <v>26.12902433488411</v>
       </c>
       <c r="F82">
-        <v>26.1329584352292</v>
+        <v>26.20396680518119</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>26.11799414692341</v>
+        <v>26.25789592846855</v>
       </c>
       <c r="C83">
-        <v>26.17480219718333</v>
+        <v>26.15708606731841</v>
       </c>
       <c r="D83">
-        <v>25.97712470365567</v>
+        <v>25.89853725000279</v>
       </c>
       <c r="E83">
-        <v>25.7399180833606</v>
+        <v>26.08784519616227</v>
       </c>
       <c r="F83">
-        <v>26.06862382820685</v>
+        <v>26.15816925447844</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>26.06106139497471</v>
+        <v>26.19113799942402</v>
       </c>
       <c r="C84">
-        <v>26.11516993457689</v>
+        <v>26.10210860242519</v>
       </c>
       <c r="D84">
-        <v>25.90672154822668</v>
+        <v>25.8498594441744</v>
       </c>
       <c r="E84">
-        <v>25.68747183266212</v>
+        <v>26.04469749301459</v>
       </c>
       <c r="F84">
-        <v>26.00300779694237</v>
+        <v>26.11021226436472</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>26.00237888736467</v>
+        <v>26.12326934135369</v>
       </c>
       <c r="C85">
-        <v>26.05405068487595</v>
+        <v>26.04537687504848</v>
       </c>
       <c r="D85">
-        <v>25.83599256540431</v>
+        <v>25.79889129822788</v>
       </c>
       <c r="E85">
-        <v>25.63313057623476</v>
+        <v>25.99970704191186</v>
       </c>
       <c r="F85">
-        <v>25.93630594335079</v>
+        <v>26.0602794111609</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>25.94211714870987</v>
+        <v>26.05446277631893</v>
       </c>
       <c r="C86">
-        <v>25.99161263078325</v>
+        <v>25.98706241110013</v>
       </c>
       <c r="D86">
-        <v>25.76500090627334</v>
+        <v>25.74577202684735</v>
       </c>
       <c r="E86">
-        <v>25.57708436231198</v>
+        <v>25.95299203374689</v>
       </c>
       <c r="F86">
-        <v>25.86868135921055</v>
+        <v>26.00853887682198</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>25.88043078470269</v>
+        <v>25.98486571583418</v>
       </c>
       <c r="C87">
-        <v>25.92800625242153</v>
+        <v>25.92732208795382</v>
       </c>
       <c r="D87">
-        <v>25.69379834673229</v>
+        <v>25.69064304484003</v>
       </c>
       <c r="E87">
-        <v>25.5195092377232</v>
+        <v>25.90466332431716</v>
       </c>
       <c r="F87">
-        <v>25.80027185999949</v>
+        <v>25.95514445228141</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>25.81747599575396</v>
+        <v>25.91460379734319</v>
       </c>
       <c r="C88">
-        <v>25.86337770501796</v>
+        <v>25.86629894783182</v>
       </c>
       <c r="D88">
-        <v>25.62242906386756</v>
+        <v>25.6336470133704</v>
       </c>
       <c r="E88">
-        <v>25.46058599853377</v>
+        <v>25.85482474606023</v>
       </c>
       <c r="F88">
-        <v>25.73120003884946</v>
+        <v>25.90023661627058</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>25.75339204025693</v>
+        <v>25.84378407151521</v>
       </c>
       <c r="C89">
-        <v>25.79785450643283</v>
+        <v>25.80412307048638</v>
       </c>
       <c r="D89">
-        <v>25.55092960179589</v>
+        <v>25.57492696178666</v>
       </c>
       <c r="E89">
-        <v>25.40047381906672</v>
+        <v>25.80357343767422</v>
       </c>
       <c r="F89">
-        <v>25.66156975715607</v>
+        <v>25.84394359864273</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>25.68830171705376</v>
+        <v>25.77249773052196</v>
       </c>
       <c r="C90">
-        <v>25.73154790450957</v>
+        <v>25.74091253752649</v>
       </c>
       <c r="D90">
-        <v>25.47933023161709</v>
+        <v>25.51462548766172</v>
       </c>
       <c r="E90">
-        <v>25.33931291204051</v>
+        <v>25.75100018664562</v>
       </c>
       <c r="F90">
-        <v>25.59146923945342</v>
+        <v>25.78638238692804</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>25.62231392187982</v>
+        <v>25.70082246616144</v>
       </c>
       <c r="C91">
-        <v>25.66455513836968</v>
+        <v>25.6767743706005</v>
       </c>
       <c r="D91">
-        <v>25.40765615451376</v>
+        <v>25.45288400562367</v>
       </c>
       <c r="E91">
-        <v>25.27722687887414</v>
+        <v>25.6971898095491</v>
       </c>
       <c r="F91">
-        <v>25.52097437488505</v>
+        <v>25.72765967483355</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>25.55552527001595</v>
+        <v>25.62882449575334</v>
       </c>
       <c r="C92">
-        <v>25.59696182489449</v>
+        <v>25.61180542526026</v>
       </c>
       <c r="D92">
-        <v>25.3359284147198</v>
+        <v>25.38984204340216</v>
       </c>
       <c r="E92">
-        <v>25.21432456188158</v>
+        <v>25.64222152385808</v>
       </c>
       <c r="F92">
-        <v>25.45014966766123</v>
+        <v>25.66787275988997</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>25.48802227051031</v>
+        <v>25.55656029297338</v>
       </c>
       <c r="C93">
-        <v>25.52884288440881</v>
+        <v>25.54609324853762</v>
       </c>
       <c r="D93">
-        <v>25.26416463757478</v>
+        <v>25.32563651080153</v>
       </c>
       <c r="E93">
-        <v>25.15070177254614</v>
+        <v>25.58616930255859</v>
       </c>
       <c r="F93">
-        <v>25.3790502733115</v>
+        <v>25.60711038432118</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>25.41988141573442</v>
+        <v>25.48407805645013</v>
       </c>
       <c r="C94">
-        <v>25.46026399200053</v>
+        <v>25.4797168951794</v>
       </c>
       <c r="D94">
-        <v>25.19237963669157</v>
+        <v>25.26040094109194</v>
       </c>
       <c r="E94">
-        <v>25.08644288132406</v>
+        <v>25.52910221991965</v>
       </c>
       <c r="F94">
-        <v>25.30772377228954</v>
+        <v>25.5454535125618</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>25.35117086835153</v>
+        <v>25.41141895627928</v>
       </c>
       <c r="C95">
-        <v>25.39128276915707</v>
+        <v>25.41274769719287</v>
       </c>
       <c r="D95">
-        <v>25.12058593378246</v>
+        <v>25.19426466261394</v>
       </c>
       <c r="E95">
-        <v>25.02162228602717</v>
+        <v>25.47108477650801</v>
       </c>
       <c r="F95">
-        <v>25.23621121679094</v>
+        <v>25.48297603998023</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25.2819510915262</v>
+        <v>25.338618197001</v>
       </c>
       <c r="C96">
-        <v>25.32194985248347</v>
+        <v>25.34524999079651</v>
       </c>
       <c r="D96">
-        <v>25.04879415124799</v>
+        <v>25.1273518475544</v>
       </c>
       <c r="E96">
-        <v>24.95630560861255</v>
+        <v>25.41217720826191</v>
       </c>
       <c r="F96">
-        <v>25.16454811002033</v>
+        <v>25.41974544138067</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>25.21227589424992</v>
+        <v>25.26570590927219</v>
       </c>
       <c r="C97">
-        <v>25.25231002679214</v>
+        <v>25.27728178102518</v>
       </c>
       <c r="D97">
-        <v>24.97701316645699</v>
+        <v>25.05978043231805</v>
       </c>
       <c r="E97">
-        <v>24.8905510215536</v>
+        <v>25.35243578400498</v>
       </c>
       <c r="F97">
-        <v>25.09276520011181</v>
+        <v>25.35582336349179</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>25.14219353176929</v>
+        <v>25.19270791104224</v>
       </c>
       <c r="C98">
-        <v>25.18240293384956</v>
+        <v>25.2088953494647</v>
       </c>
       <c r="D98">
-        <v>24.90525051197362</v>
+        <v>24.99166094054139</v>
       </c>
       <c r="E98">
-        <v>24.82440980055761</v>
+        <v>25.29191308319919</v>
       </c>
       <c r="F98">
-        <v>25.02088877678943</v>
+        <v>25.2912661615851</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>25.07174718851419</v>
+        <v>25.11964634989636</v>
       </c>
       <c r="C99">
-        <v>25.1122636517272</v>
+        <v>25.14013781020541</v>
       </c>
       <c r="D99">
-        <v>24.8335126416989</v>
+        <v>24.92309526748798</v>
       </c>
       <c r="E99">
-        <v>24.7579272865034</v>
+        <v>25.2306582554907</v>
       </c>
       <c r="F99">
-        <v>24.94894180182863</v>
+        <v>25.22612538041604</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>25.00097555919807</v>
+        <v>25.04654024702454</v>
       </c>
       <c r="C100">
-        <v>25.04192323994448</v>
+        <v>25.07105161790718</v>
       </c>
       <c r="D100">
-        <v>24.76180508674613</v>
+        <v>24.85417556199769</v>
       </c>
       <c r="E100">
-        <v>24.69114365054774</v>
+        <v>25.16871726197835</v>
       </c>
       <c r="F100">
-        <v>24.87694434039344</v>
+        <v>25.16044821076437</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>24.92991322123373</v>
+        <v>24.97340595790851</v>
       </c>
       <c r="C101">
-        <v>24.97140924415322</v>
+        <v>25.00167503013597</v>
       </c>
       <c r="D101">
-        <v>24.69013258477544</v>
+        <v>24.78498337539068</v>
       </c>
       <c r="E101">
-        <v>24.62409460979567</v>
+        <v>25.10613310354915</v>
       </c>
       <c r="F101">
-        <v>24.80491393067252</v>
+        <v>25.09427792749242</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>24.85859120167731</v>
+        <v>24.90025756156281</v>
       </c>
       <c r="C102">
-        <v>24.90074614242537</v>
+        <v>24.93204252640557</v>
       </c>
       <c r="D102">
-        <v>24.61849924990649</v>
+        <v>24.7155892048702</v>
       </c>
       <c r="E102">
-        <v>24.55681199159401</v>
+        <v>25.04294602723723</v>
       </c>
       <c r="F102">
-        <v>24.73286604498537</v>
+        <v>25.02765418456626</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>24.78703734609144</v>
+        <v>24.82710718202361</v>
       </c>
       <c r="C103">
-        <v>24.82995572924275</v>
+        <v>24.86218518514213</v>
       </c>
       <c r="D103">
-        <v>24.54690855898798</v>
+        <v>24.64605255011046</v>
       </c>
       <c r="E103">
-        <v>24.48932417005028</v>
+        <v>24.97919372265614</v>
       </c>
       <c r="F103">
-        <v>24.66081417028073</v>
+        <v>24.96061338195491</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>24.71527666767202</v>
+        <v>24.75396528547423</v>
       </c>
       <c r="C104">
-        <v>24.75905744346602</v>
+        <v>24.79213103083209</v>
       </c>
       <c r="D104">
-        <v>24.47536360545232</v>
+        <v>24.57642248301044</v>
       </c>
       <c r="E104">
-        <v>24.42165645439061</v>
+        <v>24.91491150334487</v>
       </c>
       <c r="F104">
-        <v>24.58877006801398</v>
+        <v>24.89318896846176</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>24.64333168514062</v>
+        <v>24.6808409399125</v>
       </c>
       <c r="C105">
-        <v>24.6880686514785</v>
+        <v>24.72190533374517</v>
       </c>
       <c r="D105">
-        <v>24.40386689632119</v>
+        <v>24.50673862419426</v>
       </c>
       <c r="E105">
-        <v>24.35383145110493</v>
+        <v>24.85013247438791</v>
       </c>
       <c r="F105">
-        <v>24.51674407056762</v>
+        <v>24.8254116511781</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>24.57122262818918</v>
+        <v>24.60774198084397</v>
       </c>
       <c r="C106">
-        <v>24.61700489238332</v>
+        <v>24.65153088981637</v>
       </c>
       <c r="D106">
-        <v>24.33242073310431</v>
+        <v>24.43703239138192</v>
       </c>
       <c r="E106">
-        <v>24.28586939022542</v>
+        <v>24.78488768748717</v>
       </c>
       <c r="F106">
-        <v>24.44474525289933</v>
+        <v>24.75730968466392</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>24.4989677643536</v>
+        <v>24.534675191791</v>
       </c>
       <c r="C107">
-        <v>24.54588007982173</v>
+        <v>24.58102826999775</v>
       </c>
       <c r="D107">
-        <v>24.26102705295682</v>
+        <v>24.36732838012386</v>
       </c>
       <c r="E107">
-        <v>24.21778840832398</v>
+        <v>24.71920627306447</v>
       </c>
       <c r="F107">
-        <v>24.37278169234774</v>
+        <v>24.68890910222874</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>24.42658359674268</v>
+        <v>24.46164646453448</v>
       </c>
       <c r="C108">
-        <v>24.47470670912646</v>
+        <v>24.51041604411085</v>
       </c>
       <c r="D108">
-        <v>24.1896876155773</v>
+        <v>24.29764564433666</v>
       </c>
       <c r="E108">
-        <v>24.14960479124505</v>
+        <v>24.65311560629124</v>
       </c>
       <c r="F108">
-        <v>24.30086041832227</v>
+        <v>24.62023388848655</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>24.3540850342338</v>
+        <v>24.38866089100624</v>
       </c>
       <c r="C109">
-        <v>24.40349601248497</v>
+        <v>24.43971098181659</v>
       </c>
       <c r="D109">
-        <v>24.11840395050844</v>
+        <v>24.22799891027848</v>
       </c>
       <c r="E109">
-        <v>24.08133318422231</v>
+        <v>24.58664137426745</v>
       </c>
       <c r="F109">
-        <v>24.22898788610486</v>
+        <v>24.55130616291762</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>24.28148557270084</v>
+        <v>24.31572289878932</v>
       </c>
       <c r="C110">
-        <v>24.33225812211061</v>
+        <v>24.36892823279435</v>
       </c>
       <c r="D110">
-        <v>24.04717746902862</v>
+        <v>24.1583994796204</v>
       </c>
       <c r="E110">
-        <v>24.01298677625026</v>
+        <v>24.51980778619107</v>
       </c>
       <c r="F110">
-        <v>24.15716957325898</v>
+        <v>24.48214636266117</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>24.20879741024135</v>
+        <v>24.24283633945188</v>
       </c>
       <c r="C111">
-        <v>24.26100215929204</v>
+        <v>24.29808148885181</v>
       </c>
       <c r="D111">
-        <v>23.97600935757234</v>
+        <v>24.08885616630994</v>
       </c>
       <c r="E111">
-        <v>23.94457746836347</v>
+        <v>24.45263755701404</v>
       </c>
       <c r="F111">
-        <v>24.08541063141289</v>
+        <v>24.41277335993458</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>24.136031616269</v>
+        <v>24.17000457651536</v>
       </c>
       <c r="C112">
-        <v>24.18973638930917</v>
+        <v>24.22718313039891</v>
       </c>
       <c r="D112">
-        <v>23.90490070791357</v>
+        <v>24.01937584659814</v>
       </c>
       <c r="E112">
-        <v>23.87611604551384</v>
+        <v>24.38515212325842</v>
       </c>
       <c r="F112">
-        <v>24.0137153905351</v>
+        <v>24.34320460254721</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>24.06319824897101</v>
+        <v>24.09723053995694</v>
       </c>
       <c r="C113">
-        <v>24.11846816841532</v>
+        <v>24.15624435466682</v>
       </c>
       <c r="D113">
-        <v>23.83385244832117</v>
+        <v>23.94996395237784</v>
       </c>
       <c r="E113">
-        <v>23.80761220179449</v>
+        <v>24.31737162675861</v>
       </c>
       <c r="F113">
-        <v>23.94208789976054</v>
+        <v>24.27345624385456</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>23.99030644754928</v>
+        <v>24.0245167833662</v>
       </c>
       <c r="C114">
-        <v>24.0472042759097</v>
+        <v>24.08527529402681</v>
       </c>
       <c r="D114">
-        <v>23.76286542269086</v>
+        <v>23.88062484996895</v>
       </c>
       <c r="E114">
-        <v>23.73907472106234</v>
+        <v>24.24931506960799</v>
       </c>
       <c r="F114">
-        <v>23.87053162930347</v>
+        <v>24.20354324802975</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>23.91736453144809</v>
+        <v>23.95186553590782</v>
       </c>
       <c r="C115">
-        <v>23.97595077127718</v>
+        <v>24.01428512103175</v>
       </c>
       <c r="D115">
-        <v>23.69194037508253</v>
+        <v>23.8113620877108</v>
       </c>
       <c r="E115">
-        <v>23.67051160149235</v>
+        <v>24.18100035888344</v>
       </c>
       <c r="F115">
-        <v>23.79904976363054</v>
+        <v>24.13347948409256</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>23.84438010134744</v>
+        <v>23.87927874713267</v>
       </c>
       <c r="C116">
-        <v>23.90471324668125</v>
+        <v>23.94328214271883</v>
       </c>
       <c r="D116">
-        <v>23.6210779871991</v>
+        <v>23.74217858685519</v>
       </c>
       <c r="E116">
-        <v>23.60193002911918</v>
+        <v>24.11244437782277</v>
       </c>
       <c r="F116">
-        <v>23.72764510315499</v>
+        <v>24.06327781990944</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>23.77136002844383</v>
+        <v>23.80675812027337</v>
       </c>
       <c r="C117">
-        <v>23.83349675174135</v>
+        <v>23.87227388529623</v>
       </c>
       <c r="D117">
-        <v>23.55027886956426</v>
+        <v>23.67307680085049</v>
       </c>
       <c r="E117">
-        <v>23.53333663938363</v>
+        <v>24.0436630850223</v>
       </c>
       <c r="F117">
-        <v>23.65632020396316</v>
+        <v>23.9929502130715</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>23.69831068400726</v>
+        <v>23.73430514668053</v>
       </c>
       <c r="C118">
-        <v>23.76230593130052</v>
+        <v>23.80126717003287</v>
       </c>
       <c r="D118">
-        <v>23.4795435660814</v>
+        <v>23.60405881123296</v>
       </c>
       <c r="E118">
-        <v>23.46473745322659</v>
+        <v>23.97467153015627</v>
       </c>
       <c r="F118">
-        <v>23.58507733039098</v>
+        <v>23.92250776813382</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>23.62523771774115</v>
+        <v>23.66192113229289</v>
       </c>
       <c r="C119">
-        <v>23.69114497343591</v>
+        <v>23.73026818213884</v>
       </c>
       <c r="D119">
-        <v>23.40887262777148</v>
+        <v>23.53512640329413</v>
       </c>
       <c r="E119">
-        <v>23.39613799475052</v>
+        <v>23.90548396142623</v>
       </c>
       <c r="F119">
-        <v>23.51391857131781</v>
+        <v>23.85196081328552</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>23.55214646172947</v>
+        <v>23.58960722392806</v>
       </c>
       <c r="C120">
-        <v>23.62001772888042</v>
+        <v>23.65928253191581</v>
       </c>
       <c r="D120">
-        <v>23.33826649394848</v>
+        <v>23.46628112686234</v>
       </c>
       <c r="E120">
-        <v>23.32754327677549</v>
+        <v>23.83611382931715</v>
       </c>
       <c r="F120">
-        <v>23.44284576326557</v>
+        <v>23.78131896720791</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>23.47904167132084</v>
+        <v>23.51736442497724</v>
       </c>
       <c r="C121">
-        <v>23.548927690009</v>
+        <v>23.58831530965583</v>
       </c>
       <c r="D121">
-        <v>23.26772558986795</v>
+        <v>23.39752433806772</v>
       </c>
       <c r="E121">
-        <v>23.25895790814296</v>
+        <v>23.76657387791251</v>
       </c>
       <c r="F121">
-        <v>23.37186061587731</v>
+        <v>23.71059118417799</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>23.40592779787892</v>
+        <v>23.4451936152972</v>
       </c>
       <c r="C122">
-        <v>23.47787806093886</v>
+        <v>23.51737113566479</v>
       </c>
       <c r="D122">
-        <v>23.19725040287123</v>
+        <v>23.3288572299728</v>
       </c>
       <c r="E122">
-        <v>23.19038608002432</v>
+        <v>23.69687615702725</v>
       </c>
       <c r="F122">
-        <v>23.30096463011144</v>
+        <v>23.63978579939739</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>23.33280892594069</v>
+        <v>23.37309556191161</v>
       </c>
       <c r="C123">
-        <v>23.40687177597881</v>
+        <v>23.44645420497952</v>
       </c>
       <c r="D123">
-        <v>23.12684122407142</v>
+        <v>23.26028085830541</v>
       </c>
       <c r="E123">
-        <v>23.12183164448247</v>
+        <v>23.62703208456816</v>
       </c>
       <c r="F123">
-        <v>23.23015919916251</v>
+        <v>23.56891062351102</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>23.25968878266125</v>
+        <v>23.30107094786993</v>
       </c>
       <c r="C124">
-        <v>23.33591150373021</v>
+        <v>23.37556832763453</v>
       </c>
       <c r="D124">
-        <v>23.05649844248764</v>
+        <v>23.19179616272138</v>
       </c>
       <c r="E124">
-        <v>23.05329813478863</v>
+        <v>23.55705248107182</v>
       </c>
       <c r="F124">
-        <v>23.15944556071453</v>
+        <v>23.49797288918126</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>23.18657085499075</v>
+        <v>23.22912035624944</v>
       </c>
       <c r="C125">
-        <v>23.26499974363799</v>
+        <v>23.3047169649382</v>
       </c>
       <c r="D125">
-        <v>22.98622243698611</v>
+        <v>23.12340398216854</v>
       </c>
       <c r="E125">
-        <v>22.98478878329862</v>
+        <v>23.48694759759526</v>
       </c>
       <c r="F125">
-        <v>23.08882485505981</v>
+        <v>23.42697943955684</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>23.11345829117899</v>
+        <v>23.15724432271738</v>
       </c>
       <c r="C126">
-        <v>23.19413879996666</v>
+        <v>23.23390326206027</v>
       </c>
       <c r="D126">
-        <v>22.91601344531495</v>
+        <v>23.05510506714225</v>
       </c>
       <c r="E126">
-        <v>22.91630661376583</v>
+        <v>23.41672717116809</v>
       </c>
       <c r="F126">
-        <v>23.0182981094338</v>
+        <v>23.35593660433915</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>23.04035403427256</v>
+        <v>23.08544329786282</v>
       </c>
       <c r="C127">
-        <v>23.12333066328786</v>
+        <v>23.16313007789394</v>
       </c>
       <c r="D127">
-        <v>22.84587179436066</v>
+        <v>22.98690009112809</v>
       </c>
       <c r="E127">
-        <v>22.84785439105961</v>
+        <v>23.34640043014749</v>
       </c>
       <c r="F127">
-        <v>22.9478662688617</v>
+        <v>23.28485034756314</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>22.96726076837425</v>
+        <v>23.0137176916228</v>
       </c>
       <c r="C128">
-        <v>23.05257738228289</v>
+        <v>23.0924000094698</v>
       </c>
       <c r="D128">
-        <v>22.77579776164212</v>
+        <v>22.91878965985547</v>
       </c>
       <c r="E128">
-        <v>22.77943460177816</v>
+        <v>23.27597615013093</v>
       </c>
       <c r="F128">
-        <v>22.87753018942147</v>
+        <v>23.21372625007208</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>22.89418098418462</v>
+        <v>22.94206785784095</v>
       </c>
       <c r="C129">
-        <v>22.98188080433001</v>
+        <v>23.02171542041266</v>
       </c>
       <c r="D129">
-        <v>22.70579159200544</v>
+        <v>22.85077431923607</v>
       </c>
       <c r="E129">
-        <v>22.71104972358201</v>
+        <v>23.20546265832503</v>
       </c>
       <c r="F129">
-        <v>22.8072906622569</v>
+        <v>23.14256951070827</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>22.82111698447372</v>
+        <v>22.87049410324777</v>
       </c>
       <c r="C130">
-        <v>22.91124241306861</v>
+        <v>22.95107845398131</v>
       </c>
       <c r="D130">
-        <v>22.63585353475856</v>
+        <v>22.78285456230972</v>
       </c>
       <c r="E130">
-        <v>22.64270192648126</v>
+        <v>23.13486787804836</v>
       </c>
       <c r="F130">
-        <v>22.73714840383638</v>
+        <v>23.071385043451</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>22.74807089299334</v>
+        <v>22.79899670178796</v>
       </c>
       <c r="C131">
-        <v>22.84066389278644</v>
+        <v>22.88049107251862</v>
       </c>
       <c r="D131">
-        <v>22.56598382513165</v>
+        <v>22.71503083434968</v>
       </c>
       <c r="E131">
-        <v>22.57439317012529</v>
+        <v>23.06419933949948</v>
       </c>
       <c r="F131">
-        <v>22.66710407885596</v>
+        <v>23.0001774155394</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>22.67504467459759</v>
+        <v>22.72757588486162</v>
       </c>
       <c r="C132">
-        <v>22.770146712969</v>
+        <v>22.80995504682499</v>
       </c>
       <c r="D132">
-        <v>22.49618269462218</v>
+        <v>22.64730353576616</v>
       </c>
       <c r="E132">
-        <v>22.50612548174282</v>
+        <v>22.99346420886377</v>
       </c>
       <c r="F132">
-        <v>22.59715829048867</v>
+        <v>22.92895094869004</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>22.60204019329695</v>
+        <v>22.65623185976604</v>
       </c>
       <c r="C133">
-        <v>22.69969204658155</v>
+        <v>22.73947200271809</v>
       </c>
       <c r="D133">
-        <v>22.42645036387142</v>
+        <v>22.57967303034462</v>
       </c>
       <c r="E133">
-        <v>22.4379005662711</v>
+        <v>22.92266930980238</v>
       </c>
       <c r="F133">
-        <v>22.52731159847018</v>
+        <v>22.85770967606842</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>22.52905917916554</v>
+        <v>22.58496480335002</v>
       </c>
       <c r="C134">
-        <v>22.62930121539533</v>
+        <v>22.66904340545968</v>
       </c>
       <c r="D134">
-        <v>22.35678704718231</v>
+        <v>22.51213964843236</v>
       </c>
       <c r="E134">
-        <v>22.36972002590484</v>
+        <v>22.85182113616834</v>
       </c>
       <c r="F134">
-        <v>22.45756451415444</v>
+        <v>22.78645741472202</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>22.4561031163352</v>
+        <v>22.51377487245587</v>
       </c>
       <c r="C135">
-        <v>22.55897537016012</v>
+        <v>22.59867059576854</v>
       </c>
       <c r="D135">
-        <v>22.28719295563598</v>
+        <v>22.44470368975605</v>
       </c>
       <c r="E135">
-        <v>22.30158545992997</v>
+        <v>22.78092588083017</v>
       </c>
       <c r="F135">
-        <v>22.38791751163944</v>
+        <v>22.7151977308185</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>22.3831735843268</v>
+        <v>22.44266220042785</v>
       </c>
       <c r="C136">
-        <v>22.48871549883228</v>
+        <v>22.52835478739106</v>
       </c>
       <c r="D136">
-        <v>22.21766830308844</v>
+        <v>22.37736542642539</v>
       </c>
       <c r="E136">
-        <v>22.23349824381981</v>
+        <v>22.70998943346977</v>
       </c>
       <c r="F136">
-        <v>22.31837102738283</v>
+        <v>22.64393400876707</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>22.31027205408535</v>
+        <v>22.37162690702146</v>
       </c>
       <c r="C137">
-        <v>22.4185226128267</v>
+        <v>22.45809708494925</v>
       </c>
       <c r="D137">
-        <v>22.14821328333479</v>
+        <v>22.31012510569914</v>
       </c>
       <c r="E137">
-        <v>22.16545970255881</v>
+        <v>22.63901743194998</v>
       </c>
       <c r="F137">
-        <v>22.24892546623756</v>
+        <v>22.57266941634231</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>22.2373996519562</v>
+        <v>22.30066909028203</v>
       </c>
       <c r="C138">
-        <v>22.34839762328215</v>
+        <v>22.38789849426864</v>
       </c>
       <c r="D138">
-        <v>22.07882809693256</v>
+        <v>22.24298295268057</v>
       </c>
       <c r="E138">
-        <v>22.09747109402324</v>
+        <v>22.56801524371128</v>
       </c>
       <c r="F138">
-        <v>22.17958120294856</v>
+        <v>22.50140695138664</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>22.16455767252216</v>
+        <v>22.22978884002259</v>
       </c>
       <c r="C139">
-        <v>22.2783413653891</v>
+        <v>22.31775992678457</v>
       </c>
       <c r="D139">
-        <v>22.00951294409285</v>
+        <v>22.17593917277011</v>
       </c>
       <c r="E139">
-        <v>22.0295335615062</v>
+        <v>22.49698797888502</v>
       </c>
       <c r="F139">
-        <v>22.11033858572917</v>
+        <v>22.4301494393385</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>22.09174733182481</v>
+        <v>22.15898622711607</v>
       </c>
       <c r="C140">
-        <v>22.20835464098147</v>
+        <v>22.24768221520018</v>
       </c>
       <c r="D140">
-        <v>21.9402680071962</v>
+        <v>22.10899395510169</v>
       </c>
       <c r="E140">
-        <v>21.96164820208963</v>
+        <v>22.42594056657637</v>
       </c>
       <c r="F140">
-        <v>22.04119793808295</v>
+        <v>22.35889953993931</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>22.01896966298851</v>
+        <v>22.0882613158273</v>
       </c>
       <c r="C141">
-        <v>22.13843819431501</v>
+        <v>22.1776661120711</v>
       </c>
       <c r="D141">
-        <v>21.87109347716633</v>
+        <v>22.04214746825961</v>
       </c>
       <c r="E141">
-        <v>21.89381604930941</v>
+        <v>22.35487766198246</v>
       </c>
       <c r="F141">
-        <v>21.97215956121452</v>
+        <v>22.2876597750161</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>21.94622560021742</v>
+        <v>22.01761415643966</v>
       </c>
       <c r="C142">
-        <v>22.0685927092599</v>
+        <v>22.10771230444067</v>
       </c>
       <c r="D142">
-        <v>21.80198953842588</v>
+        <v>21.97539987223173</v>
       </c>
       <c r="E142">
-        <v>21.82603805180585</v>
+        <v>22.28380373876274</v>
       </c>
       <c r="F142">
-        <v>21.90322373599375</v>
+        <v>22.21643251498977</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>21.87351615863177</v>
+        <v>21.94704479267456</v>
       </c>
       <c r="C143">
-        <v>21.99881885540876</v>
+        <v>22.03782141345342</v>
       </c>
       <c r="D143">
-        <v>21.73295637250738</v>
+        <v>21.90875130412141</v>
       </c>
       <c r="E143">
-        <v>21.75831513880197</v>
+        <v>22.21272310603297</v>
       </c>
       <c r="F143">
-        <v>21.83439072276034</v>
+        <v>22.14522001250344</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>21.80084223774341</v>
+        <v>21.87655325849385</v>
       </c>
       <c r="C144">
-        <v>21.92911725245334</v>
+        <v>21.96799400389411</v>
       </c>
       <c r="D144">
-        <v>21.6639941585899</v>
+        <v>21.84220189951999</v>
       </c>
       <c r="E144">
-        <v>21.69064818509153</v>
+        <v>22.14163981239339</v>
       </c>
       <c r="F144">
-        <v>21.76566076667341</v>
+        <v>22.07402438746128</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>21.72820460726161</v>
+        <v>21.80613958221074</v>
       </c>
       <c r="C145">
-        <v>21.85948845399137</v>
+        <v>21.89823058806847</v>
       </c>
       <c r="D145">
-        <v>21.59510307465927</v>
+        <v>21.77575177098223</v>
       </c>
       <c r="E145">
-        <v>21.62303797996749</v>
+        <v>22.0705577977338</v>
       </c>
       <c r="F145">
-        <v>21.69703410049344</v>
+        <v>22.00284765739374</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>21.65560408500044</v>
+        <v>21.73580378467976</v>
       </c>
       <c r="C146">
-        <v>21.78993302501109</v>
+        <v>21.82853162939645</v>
       </c>
       <c r="D146">
-        <v>21.52628329905129</v>
+        <v>21.70940103180734</v>
       </c>
       <c r="E146">
-        <v>21.55548532056779</v>
+        <v>21.99948081607093</v>
       </c>
       <c r="F146">
-        <v>21.62851093416581</v>
+        <v>21.93169172225796</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>21.58304141640344</v>
+        <v>21.66554588235035</v>
       </c>
       <c r="C147">
-        <v>21.72045148100015</v>
+        <v>21.75889754967289</v>
       </c>
       <c r="D147">
-        <v>21.45753500733059</v>
+        <v>21.64314978558465</v>
       </c>
       <c r="E147">
-        <v>21.48799094835507</v>
+        <v>21.92841243625033</v>
       </c>
       <c r="F147">
-        <v>21.56009147286804</v>
+        <v>21.86055839312298</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>21.51051728883136</v>
+        <v>21.59536588587548</v>
       </c>
       <c r="C148">
-        <v>21.6510442814848</v>
+        <v>21.68932872924953</v>
       </c>
       <c r="D148">
-        <v>21.38885837471233</v>
+        <v>21.5769981257186</v>
       </c>
       <c r="E148">
-        <v>21.42055553895062</v>
+        <v>21.85735610977821</v>
       </c>
       <c r="F148">
-        <v>21.49177591401178</v>
+        <v>21.78944937933918</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>21.43803237119077</v>
+        <v>21.52526380200973</v>
       </c>
       <c r="C149">
-        <v>21.58171189389444</v>
+        <v>21.61982551417333</v>
       </c>
       <c r="D149">
-        <v>21.32025357601438</v>
+        <v>21.51094613917988</v>
       </c>
       <c r="E149">
-        <v>21.35317977094369</v>
+        <v>21.78631513121114</v>
       </c>
       <c r="F149">
-        <v>21.42356442957347</v>
+        <v>21.71836630708705</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>21.36558730075208</v>
+        <v>21.45523963341829</v>
       </c>
       <c r="C150">
-        <v>21.51245474610144</v>
+        <v>21.550388216385</v>
       </c>
       <c r="D150">
-        <v>21.25172078674245</v>
+        <v>21.44499390619153</v>
       </c>
       <c r="E150">
-        <v>21.28586427615279</v>
+        <v>21.71529265517951</v>
       </c>
       <c r="F150">
-        <v>21.35545719353126</v>
+        <v>21.64731071895664</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>21.29318267454634</v>
+        <v>21.38529337907383</v>
       </c>
       <c r="C151">
-        <v>21.44327323081585</v>
+        <v>21.48101711883227</v>
       </c>
       <c r="D151">
-        <v>21.18326017949401</v>
+        <v>21.37914149920144</v>
       </c>
       <c r="E151">
-        <v>21.21860964704038</v>
+        <v>21.64429172314492</v>
       </c>
       <c r="F151">
-        <v>21.28745437333667</v>
+        <v>21.57628407815602</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>21.22081906023232</v>
+        <v>21.31542503514573</v>
       </c>
       <c r="C152">
-        <v>21.37416773277897</v>
+        <v>21.41171247705996</v>
       </c>
       <c r="D152">
-        <v>21.11487192791267</v>
+        <v>21.31338898897958</v>
       </c>
       <c r="E152">
-        <v>21.15141646343361</v>
+        <v>21.57331523884953</v>
       </c>
       <c r="F152">
-        <v>21.21955611499116</v>
+        <v>21.50528777865782</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>21.1484970191044</v>
+        <v>21.24563459466007</v>
       </c>
       <c r="C153">
-        <v>21.30513861087185</v>
+        <v>21.34247452155513</v>
       </c>
       <c r="D153">
-        <v>21.04655620626714</v>
+        <v>21.24773643781642</v>
       </c>
       <c r="E153">
-        <v>21.08428527340373</v>
+        <v>21.50236599875328</v>
       </c>
       <c r="F153">
-        <v>21.15176256633682</v>
+        <v>21.43432314139174</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>21.07621708183789</v>
+        <v>21.17592204833505</v>
       </c>
       <c r="C154">
-        <v>21.23618620263154</v>
+        <v>21.27330346131976</v>
       </c>
       <c r="D154">
-        <v>20.97831318599058</v>
+        <v>21.18218390793098</v>
       </c>
       <c r="E154">
-        <v>21.0172166006969</v>
+        <v>21.4314466966647</v>
       </c>
       <c r="F154">
-        <v>21.08407386867443</v>
+        <v>21.36339142776664</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>21.003979723173</v>
+        <v>21.10628738432544</v>
       </c>
       <c r="C155">
-        <v>21.16731083231109</v>
+        <v>21.20419948405718</v>
       </c>
       <c r="D155">
-        <v>20.91014304037733</v>
+        <v>21.11673145376154</v>
       </c>
       <c r="E155">
-        <v>20.95021095275352</v>
+        <v>21.36055989838358</v>
       </c>
       <c r="F155">
-        <v>21.01649015018723</v>
+        <v>21.29249383364415</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>20.93178544363277</v>
+        <v>21.03673058985619</v>
       </c>
       <c r="C156">
-        <v>21.09851280610371</v>
+        <v>21.1351627600126</v>
       </c>
       <c r="D156">
-        <v>20.84204594201007</v>
+        <v>21.05137912780192</v>
       </c>
       <c r="E156">
-        <v>20.88326881273867</v>
+        <v>21.28970809347678</v>
       </c>
       <c r="F156">
-        <v>20.94901153762094</v>
+        <v>21.22163150282963</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>20.8596347149515</v>
+        <v>20.96725165031784</v>
       </c>
       <c r="C157">
-        <v>21.02979241219375</v>
+        <v>21.06619344202949</v>
       </c>
       <c r="D157">
-        <v>20.7740220634255</v>
+        <v>20.98612697781793</v>
       </c>
       <c r="E157">
-        <v>20.81639064682808</v>
+        <v>21.21889366960172</v>
       </c>
       <c r="F157">
-        <v>20.88163815215356</v>
+        <v>21.15080552047725</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>20.78752795839594</v>
+        <v>20.89785054744338</v>
       </c>
       <c r="C158">
-        <v>20.96114993115378</v>
+        <v>20.99729166844534</v>
       </c>
       <c r="D158">
-        <v>20.7060715771845</v>
+        <v>20.92097504989923</v>
       </c>
       <c r="E158">
-        <v>20.74957690929602</v>
+        <v>21.14811891067906</v>
       </c>
       <c r="F158">
-        <v>20.81437010766028</v>
+        <v>21.0800169256701</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>20.71546560659037</v>
+        <v>20.82852726519943</v>
       </c>
       <c r="C159">
-        <v>20.8925856273118</v>
+        <v>20.92845756368844</v>
       </c>
       <c r="D159">
-        <v>20.6381946560943</v>
+        <v>20.85592338613695</v>
       </c>
       <c r="E159">
-        <v>20.68282803034525</v>
+        <v>21.07738603156946</v>
       </c>
       <c r="F159">
-        <v>20.74720751531187</v>
+        <v>21.00926670289793</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>20.64344807531158</v>
+        <v>20.7592817862917</v>
       </c>
       <c r="C160">
-        <v>20.82409974741924</v>
+        <v>20.85969123987152</v>
       </c>
       <c r="D160">
-        <v>20.57039147352699</v>
+        <v>20.79097202774791</v>
       </c>
       <c r="E160">
-        <v>20.61614443035338</v>
+        <v>21.00669715569544</v>
       </c>
       <c r="F160">
-        <v>20.68015048230755</v>
+        <v>20.93855579668372</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>20.5714757568036</v>
+        <v>20.69011408767557</v>
       </c>
       <c r="C161">
-        <v>20.7556925359613</v>
+        <v>20.79099279829043</v>
       </c>
       <c r="D161">
-        <v>20.5026622028929</v>
+        <v>20.72612101292458</v>
       </c>
       <c r="E161">
-        <v>20.54952651951198</v>
+        <v>20.93605432485969</v>
       </c>
       <c r="F161">
-        <v>20.61319910991677</v>
+        <v>20.8678851129756</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>20.4995490266219</v>
+        <v>20.62102415074957</v>
       </c>
       <c r="C162">
-        <v>20.68736422237503</v>
+        <v>20.72236232978572</v>
       </c>
       <c r="D162">
-        <v>20.43500701804184</v>
+        <v>20.66137037854732</v>
       </c>
       <c r="E162">
-        <v>20.48297468582341</v>
+        <v>20.86545951469884</v>
       </c>
       <c r="F162">
-        <v>20.54635349811169</v>
+        <v>20.79725550993521</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>20.42766825708351</v>
+        <v>20.5520119554132</v>
       </c>
       <c r="C163">
-        <v>20.61911502140232</v>
+        <v>20.653799916713</v>
       </c>
       <c r="D163">
-        <v>20.36742609325489</v>
+        <v>20.59672015958834</v>
       </c>
       <c r="E163">
-        <v>20.41648931280684</v>
+        <v>20.794914620307</v>
       </c>
       <c r="F163">
-        <v>20.47961374387511</v>
+        <v>20.72666780404513</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>20.35583380516861</v>
+        <v>20.48307747864876</v>
       </c>
       <c r="C164">
-        <v>20.55094514544361</v>
+        <v>20.58530563286969</v>
       </c>
       <c r="D164">
-        <v>20.29991960353583</v>
+        <v>20.53217038926058</v>
       </c>
       <c r="E164">
-        <v>20.35007077256471</v>
+        <v>20.72442147300643</v>
       </c>
       <c r="F164">
-        <v>20.41297993816886</v>
+        <v>20.65612279444814</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>20.28404601407112</v>
+        <v>20.41422069755886</v>
       </c>
       <c r="C165">
-        <v>20.48285479489327</v>
+        <v>20.51687954516278</v>
       </c>
       <c r="D165">
-        <v>20.23248772392817</v>
+        <v>20.46772109967329</v>
       </c>
       <c r="E165">
-        <v>20.28371942161262</v>
+        <v>20.65398184143616</v>
       </c>
       <c r="F165">
-        <v>20.34645217219732</v>
+        <v>20.58562124120741</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>20.21230522171616</v>
+        <v>20.34544159033399</v>
       </c>
       <c r="C166">
-        <v>20.41484415966934</v>
+        <v>20.44852171375179</v>
       </c>
       <c r="D166">
-        <v>20.16513063017024</v>
+        <v>20.40337232125959</v>
       </c>
       <c r="E166">
-        <v>20.21743561198934</v>
+        <v>20.58359742302704</v>
       </c>
       <c r="F166">
-        <v>20.28003053445559</v>
+        <v>20.51516384576581</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>20.14061175659239</v>
+        <v>20.27674013371999</v>
       </c>
       <c r="C167">
-        <v>20.34691342531204</v>
+        <v>20.38023219307417</v>
       </c>
       <c r="D167">
-        <v>20.0978484987582</v>
+        <v>20.33912408362246</v>
       </c>
       <c r="E167">
-        <v>20.15121968558593</v>
+        <v>20.51326986513574</v>
       </c>
       <c r="F167">
-        <v>20.21371510845757</v>
+        <v>20.44475131521776</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>20.06896593406968</v>
+        <v>20.20811630335703</v>
       </c>
       <c r="C168">
-        <v>20.27906276868521</v>
+        <v>20.31201103241365</v>
       </c>
       <c r="D168">
-        <v>20.03064150626759</v>
+        <v>20.27497641516561</v>
       </c>
       <c r="E168">
-        <v>20.08507197399526</v>
+        <v>20.4430007554205</v>
       </c>
       <c r="F168">
-        <v>20.14750597799251</v>
+        <v>20.3743843207803</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>19.99736806685943</v>
+        <v>20.13957007596663</v>
       </c>
       <c r="C169">
-        <v>20.21129235911726</v>
+        <v>20.24385827622384</v>
       </c>
       <c r="D169">
-        <v>19.9635098301778</v>
+        <v>20.21092934342963</v>
       </c>
       <c r="E169">
-        <v>20.01899280380934</v>
+        <v>20.37279162181608</v>
       </c>
       <c r="F169">
-        <v>20.08140322445171</v>
+        <v>20.30406348417219</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.92581846143706</v>
+        <v>20.07110142766728</v>
       </c>
       <c r="C170">
-        <v>20.14360236131012</v>
+        <v>20.17577396510434</v>
       </c>
       <c r="D170">
-        <v>19.89645364849147</v>
+        <v>20.14698289533575</v>
       </c>
       <c r="E170">
-        <v>19.95298249378767</v>
+        <v>20.30264394821329</v>
       </c>
       <c r="F170">
-        <v>20.01540692601122</v>
+        <v>20.23378942024669</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.85431741384975</v>
+        <v>20.0027103341211</v>
       </c>
       <c r="C171">
-        <v>20.07599293324006</v>
+        <v>20.10775813570611</v>
       </c>
       <c r="D171">
-        <v>19.82947313980139</v>
+        <v>20.08313709680114</v>
       </c>
       <c r="E171">
-        <v>19.88704135447196</v>
+        <v>20.23255916407399</v>
       </c>
       <c r="F171">
-        <v>19.94951716042635</v>
+        <v>20.163562720393</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19.78286521244349</v>
+        <v>19.93439677140928</v>
       </c>
       <c r="C172">
-        <v>20.00846422660687</v>
+        <v>20.03981082165692</v>
       </c>
       <c r="D172">
-        <v>19.76256848336059</v>
+        <v>20.01939197341826</v>
       </c>
       <c r="E172">
-        <v>19.82116969285062</v>
+        <v>20.16253865008052</v>
       </c>
       <c r="F172">
-        <v>19.88373400364673</v>
+        <v>20.09338394570869</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>19.71146214633456</v>
+        <v>19.86616071555967</v>
       </c>
       <c r="C173">
-        <v>19.94101638988679</v>
+        <v>19.97193205354044</v>
       </c>
       <c r="D173">
-        <v>19.69573985909788</v>
+        <v>19.95574755001459</v>
       </c>
       <c r="E173">
-        <v>19.75536780911276</v>
+        <v>20.09258374611301</v>
       </c>
       <c r="F173">
-        <v>19.81805752957053</v>
+        <v>20.02325363242527</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>19.6401084969098</v>
+        <v>19.79800214230426</v>
       </c>
       <c r="C174">
-        <v>19.87364956565687</v>
+        <v>19.90412185951057</v>
       </c>
       <c r="D174">
-        <v>19.62898744768215</v>
+        <v>19.89220385107355</v>
       </c>
       <c r="E174">
-        <v>19.68963599673868</v>
+        <v>20.02269574284498</v>
       </c>
       <c r="F174">
-        <v>19.75248781147167</v>
+        <v>19.95317230484822</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>19.56880453434798</v>
+        <v>19.72992102782903</v>
       </c>
       <c r="C175">
-        <v>19.80636389095415</v>
+        <v>19.83638026547116</v>
       </c>
       <c r="D175">
-        <v>19.5623114304697</v>
+        <v>19.8287609006464</v>
       </c>
       <c r="E175">
-        <v>19.62397454678391</v>
+        <v>19.95287589225545</v>
       </c>
       <c r="F175">
-        <v>19.68702492135973</v>
+        <v>19.88314046437881</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.49755053224117</v>
+        <v>19.66191734853079</v>
       </c>
       <c r="C176">
-        <v>19.73915950077026</v>
+        <v>19.76870729532208</v>
       </c>
       <c r="D176">
-        <v>19.4957119895501</v>
+        <v>19.7654187223735</v>
       </c>
       <c r="E176">
-        <v>19.5583837442521</v>
+        <v>19.8831254072225</v>
       </c>
       <c r="F176">
-        <v>19.62166892952635</v>
+        <v>19.8131585888467</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>19.42634675791723</v>
+        <v>19.59399108062189</v>
       </c>
       <c r="C177">
-        <v>19.67203652494499</v>
+        <v>19.70110297139147</v>
       </c>
       <c r="D177">
-        <v>19.42918930775145</v>
+        <v>19.70217733972657</v>
       </c>
       <c r="E177">
-        <v>19.49286386921536</v>
+        <v>19.81344545765512</v>
       </c>
       <c r="F177">
-        <v>19.55641990601134</v>
+        <v>19.74322714538757</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>19.35519347168578</v>
+        <v>19.52614220045508</v>
       </c>
       <c r="C178">
-        <v>19.60499508874736</v>
+        <v>19.63356731440051</v>
       </c>
       <c r="D178">
-        <v>19.36274356873164</v>
+        <v>19.63903677578488</v>
       </c>
       <c r="E178">
-        <v>19.42741519942409</v>
+        <v>19.7438371814879</v>
       </c>
       <c r="F178">
-        <v>19.49127791987103</v>
+        <v>19.67334658341223</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>19.28409093295507</v>
+        <v>19.45837068502452</v>
       </c>
       <c r="C179">
-        <v>19.53803531564738</v>
+        <v>19.56610034393281</v>
       </c>
       <c r="D179">
-        <v>19.29637495675192</v>
+        <v>19.57599705358365</v>
       </c>
       <c r="E179">
-        <v>19.36203800769898</v>
+        <v>19.6743016798296</v>
       </c>
       <c r="F179">
-        <v>19.42624303857498</v>
+        <v>19.60351733121794</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>19.21303939796301</v>
+        <v>19.3906765113162</v>
       </c>
       <c r="C180">
-        <v>19.47115732498802</v>
+        <v>19.49870207839028</v>
       </c>
       <c r="D180">
-        <v>19.2300836569372</v>
+        <v>19.51305819591886</v>
       </c>
       <c r="E180">
-        <v>19.29673256345386</v>
+        <v>19.60484001760962</v>
       </c>
       <c r="F180">
-        <v>19.36131532967935</v>
+        <v>19.53373980725945</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>19.142039119156</v>
+        <v>19.3230596561791</v>
       </c>
       <c r="C181">
-        <v>19.4043612326016</v>
+        <v>19.43137253533457</v>
       </c>
       <c r="D181">
-        <v>19.16386985532256</v>
+        <v>19.45022022551404</v>
       </c>
       <c r="E181">
-        <v>19.23149913369977</v>
+        <v>19.53545323110734</v>
       </c>
       <c r="F181">
-        <v>19.29649485990056</v>
+        <v>19.46401441659565</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>19.07109034605618</v>
+        <v>19.2555200972533</v>
       </c>
       <c r="C182">
-        <v>19.33764715244879</v>
+        <v>19.36411173152638</v>
       </c>
       <c r="D182">
-        <v>19.09773373876508</v>
+        <v>19.38748316503695</v>
       </c>
       <c r="E182">
-        <v>19.16633798162032</v>
+        <v>19.46614232308854</v>
       </c>
       <c r="F182">
-        <v>19.23178169470924</v>
+        <v>19.39434154746859</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>19.00019332697794</v>
+        <v>19.18805781230243</v>
       </c>
       <c r="C183">
-        <v>19.27101519532938</v>
+        <v>19.29691968309958</v>
       </c>
       <c r="D183">
-        <v>19.03167549472319</v>
+        <v>19.32484703702987</v>
       </c>
       <c r="E183">
-        <v>19.10124936806064</v>
+        <v>19.39690826616547</v>
       </c>
       <c r="F183">
-        <v>19.16717589966715</v>
+        <v>19.32472157380689</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>18.92934830770452</v>
+        <v>19.12067277914807</v>
       </c>
       <c r="C184">
-        <v>19.20446546933892</v>
+        <v>19.22979640571472</v>
       </c>
       <c r="D184">
-        <v>18.96569531139149</v>
+        <v>19.26231186412224</v>
       </c>
       <c r="E184">
-        <v>19.03623355170191</v>
+        <v>19.32775200666705</v>
       </c>
       <c r="F184">
-        <v>19.10267753967497</v>
+        <v>19.25515486283058</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>18.85855553064552</v>
+        <v>19.05336497617472</v>
       </c>
       <c r="C185">
-        <v>19.13799808090306</v>
+        <v>19.16274191458319</v>
       </c>
       <c r="D185">
-        <v>18.8997933782416</v>
+        <v>19.19987766892768</v>
       </c>
       <c r="E185">
-        <v>18.97129078723593</v>
+        <v>19.25867446025263</v>
       </c>
       <c r="F185">
-        <v>19.03828667881368</v>
+        <v>19.18564176811712</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.78781523855668</v>
+        <v>18.98613438202386</v>
       </c>
       <c r="C186">
-        <v>19.07161313392087</v>
+        <v>19.09575622468001</v>
       </c>
       <c r="D186">
-        <v>18.83396988547382</v>
+        <v>19.137544474177</v>
       </c>
       <c r="E186">
-        <v>18.90642132883514</v>
+        <v>19.18967651822909</v>
       </c>
       <c r="F186">
-        <v>18.97400338113505</v>
+        <v>19.11618262691109</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>18.71712767237815</v>
+        <v>18.91898097565164</v>
       </c>
       <c r="C187">
-        <v>19.00531073010229</v>
+        <v>19.02883935071801</v>
       </c>
       <c r="D187">
-        <v>18.76822502404466</v>
+        <v>19.07531230242645</v>
       </c>
       <c r="E187">
-        <v>18.84162542884187</v>
+        <v>19.12075904682766</v>
       </c>
       <c r="F187">
-        <v>18.90982771023917</v>
+        <v>19.04677777270854</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>18.64649306979171</v>
+        <v>18.85190473639723</v>
       </c>
       <c r="C188">
-        <v>18.93909096991485</v>
+        <v>18.96199130732555</v>
       </c>
       <c r="D188">
-        <v>18.70255898534344</v>
+        <v>19.0131811767018</v>
       </c>
       <c r="E188">
-        <v>18.77690333817388</v>
+        <v>19.0519228853592</v>
       </c>
       <c r="F188">
-        <v>18.84575972919254</v>
+        <v>18.9774275273979</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>18.57591166897524</v>
+        <v>18.7849056439937</v>
       </c>
       <c r="C189">
-        <v>18.87295395169876</v>
+        <v>18.89521210904921</v>
       </c>
       <c r="D189">
-        <v>18.63697196232842</v>
+        <v>18.95115111976244</v>
       </c>
       <c r="E189">
-        <v>18.71225530359528</v>
+        <v>18.98316885245258</v>
       </c>
       <c r="F189">
-        <v>18.78179950102231</v>
+        <v>18.90813220000734</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.5053837072524</v>
+        <v>18.71798367853522</v>
       </c>
       <c r="C190">
-        <v>18.80689977199589</v>
+        <v>18.82850177045997</v>
       </c>
       <c r="D190">
-        <v>18.57146414861021</v>
+        <v>18.88922215444125</v>
       </c>
       <c r="E190">
-        <v>18.64768157072132</v>
+        <v>18.91449774258086</v>
       </c>
       <c r="F190">
-        <v>18.71794708846745</v>
+        <v>18.83889209342555</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>18.43490942019502</v>
+        <v>18.65113882049954</v>
       </c>
       <c r="C191">
-        <v>18.74092852645886</v>
+        <v>18.76186030620471</v>
       </c>
       <c r="D191">
-        <v>18.50603573869739</v>
+        <v>18.82739430405138</v>
       </c>
       <c r="E191">
-        <v>18.58318238707594</v>
+        <v>18.84591032657052</v>
       </c>
       <c r="F191">
-        <v>18.65420255386186</v>
+        <v>18.76970750213551</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>18.36448904220685</v>
+        <v>18.58437105084052</v>
       </c>
       <c r="C192">
-        <v>18.67504030898179</v>
+        <v>18.69528773103797</v>
       </c>
       <c r="D192">
-        <v>18.44068692757948</v>
+        <v>18.7656675920683</v>
       </c>
       <c r="E192">
-        <v>18.51875799813078</v>
+        <v>18.77740735855974</v>
       </c>
       <c r="F192">
-        <v>18.59056595959509</v>
+        <v>18.70057871121206</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>18.29412280835141</v>
+        <v>18.51768035091075</v>
       </c>
       <c r="C193">
-        <v>18.60923521203508</v>
+        <v>18.62878405991676</v>
       </c>
       <c r="D193">
-        <v>18.37541791164876</v>
+        <v>18.70404204204472</v>
       </c>
       <c r="E193">
-        <v>18.4544086472528</v>
+        <v>18.70898957268088</v>
       </c>
       <c r="F193">
-        <v>18.52703736786617</v>
+        <v>18.63150599752668</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>18.22381095273833</v>
+        <v>18.45106670239219</v>
       </c>
       <c r="C194">
-        <v>18.54351332738373</v>
+        <v>18.56234930799042</v>
       </c>
       <c r="D194">
-        <v>18.31022888803383</v>
+        <v>18.64251767770697</v>
       </c>
       <c r="E194">
-        <v>18.39013457162858</v>
+        <v>18.64065768242228</v>
       </c>
       <c r="F194">
-        <v>18.46361684055473</v>
+        <v>18.56248963245629</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>18.15355370824105</v>
+        <v>18.38453008754131</v>
       </c>
       <c r="C195">
-        <v>18.4778747454252</v>
+        <v>18.49598349069078</v>
       </c>
       <c r="D195">
-        <v>18.24512005477882</v>
+        <v>18.58109452298773</v>
       </c>
       <c r="E195">
-        <v>18.32593601582605</v>
+        <v>18.57241237471687</v>
       </c>
       <c r="F195">
-        <v>18.40030443967735</v>
+        <v>18.49352987974213</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>18.08335130860577</v>
+        <v>18.31807048903413</v>
       </c>
       <c r="C196">
-        <v>18.41231955548218</v>
+        <v>18.42968662373031</v>
       </c>
       <c r="D196">
-        <v>18.18009161075662</v>
+        <v>18.5197726020141</v>
       </c>
       <c r="E196">
-        <v>18.26181322097845</v>
+        <v>18.50425433257626</v>
       </c>
       <c r="F196">
-        <v>18.33710022712868</v>
+        <v>18.42462699450382</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>18.01320398719477</v>
+        <v>18.25168788990049</v>
       </c>
       <c r="C197">
-        <v>18.34684784629487</v>
+        <v>18.36345872316234</v>
       </c>
       <c r="D197">
-        <v>18.11514375583551</v>
+        <v>18.45855193915436</v>
       </c>
       <c r="E197">
-        <v>18.19776642790622</v>
+        <v>18.43618421881991</v>
       </c>
       <c r="F197">
-        <v>18.27400426459356</v>
+        <v>18.35578122829314</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>17.9431119768545</v>
+        <v>18.18538227373306</v>
       </c>
       <c r="C198">
-        <v>18.28145970558104</v>
+        <v>18.29729980539909</v>
       </c>
       <c r="D198">
-        <v>18.05027669081314</v>
+        <v>18.39743255902168</v>
       </c>
       <c r="E198">
-        <v>18.13379587109095</v>
+        <v>18.36820267952506</v>
       </c>
       <c r="F198">
-        <v>18.21101661391344</v>
+        <v>18.28699282619819</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>17.87307551097115</v>
+        <v>18.11915362457686</v>
       </c>
       <c r="C199">
-        <v>18.21615522027169</v>
+        <v>18.23120988723815</v>
       </c>
       <c r="D199">
-        <v>17.9854906174096</v>
+        <v>18.33641448648359</v>
       </c>
       <c r="E199">
-        <v>18.0699017906611</v>
+        <v>18.30031032860204</v>
       </c>
       <c r="F199">
-        <v>18.148137336877</v>
+        <v>18.21826202548252</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>17.80309482320093</v>
+        <v>18.05300192693119</v>
       </c>
       <c r="C200">
-        <v>18.15093447686941</v>
+        <v>18.16518898590361</v>
       </c>
       <c r="D200">
-        <v>17.92078573827751</v>
+        <v>18.27549774665134</v>
       </c>
       <c r="E200">
-        <v>18.00608442496356</v>
+        <v>18.23250778730011</v>
       </c>
       <c r="F200">
-        <v>18.08536649517663</v>
+        <v>18.14958905992143</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>17.73317014722906</v>
+        <v>17.98692716578577</v>
       </c>
       <c r="C201">
-        <v>18.08579756111269</v>
+        <v>18.09923711904788</v>
       </c>
       <c r="D201">
-        <v>17.85616225701726</v>
+        <v>18.21468236493372</v>
       </c>
       <c r="E201">
-        <v>17.94234401174088</v>
+        <v>18.16479565569298</v>
       </c>
       <c r="F201">
-        <v>18.02270415065767</v>
+        <v>18.08097415829787</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>17.66330171699023</v>
+        <v>17.92092932664011</v>
       </c>
       <c r="C202">
-        <v>18.02074455818057</v>
+        <v>18.03335430479629</v>
       </c>
       <c r="D202">
-        <v>17.79162037819017</v>
+        <v>18.15396836694758</v>
       </c>
       <c r="E202">
-        <v>17.87868078704179</v>
+        <v>18.09717452085733</v>
       </c>
       <c r="F202">
-        <v>17.96015036517988</v>
+        <v>18.01241754353351</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>17.59348976734241</v>
+        <v>17.85500839548797</v>
       </c>
       <c r="C203">
-        <v>17.95577555299798</v>
+        <v>17.96754056174841</v>
       </c>
       <c r="D203">
-        <v>17.72716030731383</v>
+        <v>18.0933557786207</v>
       </c>
       <c r="E203">
-        <v>17.81509498676916</v>
+        <v>18.02964493956903</v>
       </c>
       <c r="F203">
-        <v>17.89770520058901</v>
+        <v>17.94391943351354</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>17.52373453353708</v>
+        <v>17.78916435883037</v>
       </c>
       <c r="C204">
-        <v>17.89089062978639</v>
+        <v>17.9017959090119</v>
       </c>
       <c r="D204">
-        <v>17.6627822508503</v>
+        <v>18.03284462617373</v>
       </c>
       <c r="E204">
-        <v>17.75158684796435</v>
+        <v>17.96220747574855</v>
       </c>
       <c r="F204">
-        <v>17.83536871889682</v>
+        <v>17.87548004314093</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>17.4540362509122</v>
+        <v>17.72339720369237</v>
       </c>
       <c r="C205">
-        <v>17.82608987243018</v>
+        <v>17.83612036621104</v>
       </c>
       <c r="D205">
-        <v>17.59848641619854</v>
+        <v>17.97243493610132</v>
       </c>
       <c r="E205">
-        <v>17.68815660690221</v>
+        <v>17.89486267445688</v>
       </c>
       <c r="F205">
-        <v>17.77314098217189</v>
+        <v>17.80709958260188</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>17.38439515619736</v>
+        <v>17.65770691762291</v>
       </c>
       <c r="C206">
-        <v>17.76137336488294</v>
+        <v>17.77051395350696</v>
       </c>
       <c r="D206">
-        <v>17.53427301178746</v>
+        <v>17.91212673521534</v>
       </c>
       <c r="E206">
-        <v>17.62480449960836</v>
+        <v>17.82761106920276</v>
       </c>
       <c r="F206">
-        <v>17.71102205245811</v>
+        <v>17.7387782569141</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>17.31481148674312</v>
+        <v>17.59209348869236</v>
       </c>
       <c r="C207">
-        <v>17.69674119086144</v>
+        <v>17.70497669161559</v>
       </c>
       <c r="D207">
-        <v>17.47014224700259</v>
+        <v>17.85192005087619</v>
       </c>
       <c r="E207">
-        <v>17.56153076140627</v>
+        <v>17.76045317401835</v>
       </c>
       <c r="F207">
-        <v>17.64901199208735</v>
+        <v>17.67051626892725</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>17.24528548031734</v>
+        <v>17.52655690552455</v>
       </c>
       <c r="C208">
-        <v>17.63219343394303</v>
+        <v>17.63950860181609</v>
       </c>
       <c r="D208">
-        <v>17.4060943322023</v>
+        <v>17.79181491011532</v>
       </c>
       <c r="E208">
-        <v>17.49833562869789</v>
+        <v>17.69338949934816</v>
       </c>
       <c r="F208">
-        <v>17.58711086349316</v>
+        <v>17.6023138176004</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>17.17581737592992</v>
+        <v>17.46109715728776</v>
       </c>
       <c r="C209">
-        <v>17.56773017612912</v>
+        <v>17.57410970597351</v>
       </c>
       <c r="D209">
-        <v>17.3421294786433</v>
+        <v>17.73181134102964</v>
       </c>
       <c r="E209">
-        <v>17.43521933762714</v>
+        <v>17.62642054386042</v>
       </c>
       <c r="F209">
-        <v>17.52531872928142</v>
+        <v>17.53417109756478</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>17.10640741360384</v>
+        <v>17.39571423368593</v>
       </c>
       <c r="C210">
-        <v>17.50335150134635</v>
+        <v>17.50878002654348</v>
       </c>
       <c r="D210">
-        <v>17.27824789867899</v>
+        <v>17.67190937116651</v>
       </c>
       <c r="E210">
-        <v>17.37218212453345</v>
+        <v>17.5595467954115</v>
       </c>
       <c r="F210">
-        <v>17.46363565196607</v>
+        <v>17.46608830115042</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>17.03705583422811</v>
+        <v>17.33040812499568</v>
       </c>
       <c r="C211">
-        <v>17.43905749294069</v>
+        <v>17.44351958659231</v>
       </c>
       <c r="D211">
-        <v>17.2144498056153</v>
+        <v>17.6121090292634</v>
       </c>
       <c r="E211">
-        <v>17.30922422480969</v>
+        <v>17.49276872859728</v>
       </c>
       <c r="F211">
-        <v>17.40206169426788</v>
+        <v>17.39806561775482</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>16.96776287969537</v>
+        <v>17.265178822061</v>
       </c>
       <c r="C212">
-        <v>17.37484823441758</v>
+        <v>17.37832840980395</v>
       </c>
       <c r="D212">
-        <v>17.15073541375393</v>
+        <v>17.5524103436064</v>
       </c>
       <c r="E212">
-        <v>17.24634587530889</v>
+        <v>17.42608681062948</v>
       </c>
       <c r="F212">
-        <v>17.34059691935175</v>
+        <v>17.33010323347471</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>16.89852879328535</v>
+        <v>17.20002631629022</v>
       </c>
       <c r="C213">
-        <v>17.31072380829509</v>
+        <v>17.31320652049484</v>
       </c>
       <c r="D213">
-        <v>17.08710493832953</v>
+        <v>17.49281334347054</v>
       </c>
       <c r="E213">
-        <v>17.18354731289283</v>
+        <v>17.35950150039019</v>
       </c>
       <c r="F213">
-        <v>17.27924139047123</v>
+        <v>17.26220133155591</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>16.82935381940066</v>
+        <v>17.13495059966829</v>
       </c>
       <c r="C214">
-        <v>17.24668429727269</v>
+        <v>17.24815394362457</v>
       </c>
       <c r="D214">
-        <v>17.02355859564154</v>
+        <v>17.43331805795215</v>
       </c>
       <c r="E214">
-        <v>17.12082877472819</v>
+        <v>17.29301324741512</v>
       </c>
       <c r="F214">
-        <v>17.21799517110574</v>
+        <v>17.19436009343611</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>16.76023820350979</v>
+        <v>17.06995166477317</v>
       </c>
       <c r="C215">
-        <v>17.18272978544246</v>
+        <v>17.1831707048055</v>
       </c>
       <c r="D215">
-        <v>16.96009660297727</v>
+        <v>17.37392451681264</v>
       </c>
       <c r="E215">
-        <v>17.05819049752579</v>
+        <v>17.22662249004878</v>
       </c>
       <c r="F215">
-        <v>17.15685832415534</v>
+        <v>17.1265796979111</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>16.6911821926496</v>
+        <v>17.00502950477157</v>
       </c>
       <c r="C216">
-        <v>17.11886035656697</v>
+        <v>17.11825683031647</v>
       </c>
       <c r="D216">
-        <v>16.89671917862734</v>
+        <v>17.3146327500063</v>
       </c>
       <c r="E216">
-        <v>16.99563271845711</v>
+        <v>17.160329659041</v>
       </c>
       <c r="F216">
-        <v>17.09583091368905</v>
+        <v>17.05886032079427</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>16.62218603517523</v>
+        <v>16.94018411342775</v>
       </c>
       <c r="C217">
-        <v>17.05507609463934</v>
+        <v>17.05341234710979</v>
       </c>
       <c r="D217">
-        <v>16.83342654187727</v>
+        <v>17.25544278774545</v>
       </c>
       <c r="E217">
-        <v>16.93315567583179</v>
+        <v>17.09413517942189</v>
       </c>
       <c r="F217">
-        <v>17.03491300366505</v>
+        <v>16.9912021367967</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>16.55324998069713</v>
+        <v>16.87541548511256</v>
       </c>
       <c r="C218">
-        <v>16.99137708218251</v>
+        <v>16.98863728282457</v>
       </c>
       <c r="D218">
-        <v>16.77021891303223</v>
+        <v>17.19635466089168</v>
       </c>
       <c r="E218">
-        <v>16.8707596080418</v>
+        <v>17.02803946776378</v>
       </c>
       <c r="F218">
-        <v>16.97410465827357</v>
+        <v>16.92360531845733</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>16.48437428043011</v>
+        <v>16.81072361480842</v>
       </c>
       <c r="C219">
-        <v>16.92776340416839</v>
+        <v>16.92393166579443</v>
       </c>
       <c r="D219">
-        <v>16.70709651342002</v>
+        <v>17.13736840007028</v>
       </c>
       <c r="E219">
-        <v>16.80844475370682</v>
+        <v>16.96204293110557</v>
       </c>
       <c r="F219">
-        <v>16.91340594172979</v>
+        <v>16.85607003580208</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>16.415559187135</v>
+        <v>16.74610849812197</v>
       </c>
       <c r="C220">
-        <v>16.86423514513164</v>
+        <v>16.85929552505901</v>
       </c>
       <c r="D220">
-        <v>16.64405956538415</v>
+        <v>17.07848403710442</v>
       </c>
       <c r="E220">
-        <v>16.7462113511178</v>
+        <v>16.89614596835273</v>
       </c>
       <c r="F220">
-        <v>16.8528169182809</v>
+        <v>16.78859645773374</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>16.34680495505345</v>
+        <v>16.68157013128096</v>
       </c>
       <c r="C221">
-        <v>16.80079238996595</v>
+        <v>16.79472889037298</v>
       </c>
       <c r="D221">
-        <v>16.58110829228572</v>
+        <v>17.01970160306837</v>
       </c>
       <c r="E221">
-        <v>16.68405964023107</v>
+        <v>16.83034897518169</v>
       </c>
       <c r="F221">
-        <v>16.79233765284911</v>
+        <v>16.72118475157983</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>16.27811183998593</v>
+        <v>16.61710851114765</v>
       </c>
       <c r="C222">
-        <v>16.73743522355175</v>
+        <v>16.73023179221573</v>
       </c>
       <c r="D222">
-        <v>16.51824291850853</v>
+        <v>16.96102113056766</v>
       </c>
       <c r="E222">
-        <v>16.62198986107305</v>
+        <v>16.76465233931523</v>
       </c>
       <c r="F222">
-        <v>16.73196821039616</v>
+        <v>16.65383508260816</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>16.20948009952818</v>
+        <v>16.55272363522769</v>
       </c>
       <c r="C223">
-        <v>16.67416373111102</v>
+        <v>16.66580426180161</v>
       </c>
       <c r="D223">
-        <v>16.45546366947543</v>
+        <v>16.90244265135825</v>
       </c>
       <c r="E223">
-        <v>16.56000225421298</v>
+        <v>16.69905644086004</v>
       </c>
       <c r="F223">
-        <v>16.67170865611805</v>
+        <v>16.58654761462418</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>16.140909992909</v>
+        <v>16.48841550167275</v>
       </c>
       <c r="C224">
-        <v>16.61097799874812</v>
+        <v>16.6014463310886</v>
       </c>
       <c r="D224">
-        <v>16.39277077163828</v>
+        <v>16.84396619868112</v>
       </c>
       <c r="E224">
-        <v>16.49809706015263</v>
+        <v>16.63356165160512</v>
       </c>
       <c r="F224">
-        <v>16.61155905521112</v>
+        <v>16.51932251096397</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>16.07240178086585</v>
+        <v>16.42418410928785</v>
       </c>
       <c r="C225">
-        <v>16.54787811279394</v>
+        <v>16.53715803278854</v>
       </c>
       <c r="D225">
-        <v>16.33016445247983</v>
+        <v>16.78559180519546</v>
       </c>
       <c r="E225">
-        <v>16.43627452060375</v>
+        <v>16.56816834126402</v>
       </c>
       <c r="F225">
-        <v>16.55151947331004</v>
+        <v>16.45215993365748</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>16.00395572625438</v>
+        <v>16.36002945754155</v>
       </c>
       <c r="C226">
-        <v>16.48486416005071</v>
+        <v>16.472939400376</v>
       </c>
       <c r="D226">
-        <v>16.26764494050145</v>
+        <v>16.72731950518553</v>
       </c>
       <c r="E226">
-        <v>16.37453487769604</v>
+        <v>16.50287687240656</v>
       </c>
       <c r="F226">
-        <v>16.49158997627102</v>
+        <v>16.38506004386987</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>15.93557209368738</v>
+        <v>16.29595154657254</v>
       </c>
       <c r="C227">
-        <v>16.42193622747099</v>
+        <v>16.40879046809886</v>
       </c>
       <c r="D227">
-        <v>16.20521246527332</v>
+        <v>16.66914933159486</v>
       </c>
       <c r="E227">
-        <v>16.31287837414177</v>
+        <v>16.4376876015818</v>
       </c>
       <c r="F227">
-        <v>16.43177063015706</v>
+        <v>16.31802300027466</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>15.86725114969118</v>
+        <v>16.23195037719294</v>
       </c>
       <c r="C228">
-        <v>16.35909440294823</v>
+        <v>16.34471127098649</v>
       </c>
       <c r="D228">
-        <v>16.14286725739949</v>
+        <v>16.61108131773611</v>
       </c>
       <c r="E228">
-        <v>16.25130525309027</v>
+        <v>16.37260087777384</v>
       </c>
       <c r="F228">
-        <v>16.37206150124964</v>
+        <v>16.25104896072189</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>15.79899316268618</v>
+        <v>16.1680259508997</v>
       </c>
       <c r="C229">
-        <v>16.29633877477935</v>
+        <v>16.28070184486034</v>
       </c>
       <c r="D229">
-        <v>16.08060954853064</v>
+        <v>16.55311549823171</v>
       </c>
       <c r="E229">
-        <v>16.18981575835566</v>
+        <v>16.30761704793505</v>
       </c>
       <c r="F229">
-        <v>16.31246265599832</v>
+        <v>16.18413808448164</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>15.73079840234918</v>
+        <v>16.10417826988528</v>
       </c>
       <c r="C230">
-        <v>16.23366943184107</v>
+        <v>16.21676222634363</v>
       </c>
       <c r="D230">
-        <v>16.01843957132909</v>
+        <v>16.49525190840953</v>
       </c>
       <c r="E230">
-        <v>16.12841013457093</v>
+        <v>16.24273645296597</v>
       </c>
       <c r="F230">
-        <v>16.25297416120522</v>
+        <v>16.11729052934375</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>15.66266714137663</v>
+        <v>16.04040733703493</v>
       </c>
       <c r="C231">
-        <v>16.17108646343549</v>
+        <v>16.15289245286921</v>
       </c>
       <c r="D231">
-        <v>15.95635755955052</v>
+        <v>16.43749058348578</v>
       </c>
       <c r="E231">
-        <v>16.06708862697104</v>
+        <v>16.17795942886716</v>
       </c>
       <c r="F231">
-        <v>16.19359608387657</v>
+        <v>16.05050645273893</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>15.59459965417923</v>
+        <v>15.97671315594098</v>
       </c>
       <c r="C232">
-        <v>16.10858995943316</v>
+        <v>16.08909256269137</v>
       </c>
       <c r="D232">
-        <v>15.89436374798916</v>
+        <v>16.37983155891176</v>
       </c>
       <c r="E232">
-        <v>16.00585148141255</v>
+        <v>16.11328630493044</v>
       </c>
       <c r="F232">
-        <v>16.13432849126785</v>
+        <v>15.98378600933129</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>15.52659621729201</v>
+        <v>15.91309573091796</v>
       </c>
       <c r="C233">
-        <v>16.0461800105861</v>
+        <v>16.02536259489438</v>
       </c>
       <c r="D233">
-        <v>15.8324583724951</v>
+        <v>16.32227487050311</v>
       </c>
       <c r="E233">
-        <v>15.94469894421888</v>
+        <v>16.04871740860049</v>
       </c>
       <c r="F233">
-        <v>16.07517145071979</v>
+        <v>15.91712935327425</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>15.45865710937858</v>
+        <v>15.84955506699434</v>
       </c>
       <c r="C234">
-        <v>15.98385670820263</v>
+        <v>15.96170258940277</v>
       </c>
       <c r="D234">
-        <v>15.77064166995225</v>
+        <v>16.26482055444348</v>
       </c>
       <c r="E234">
-        <v>15.88363126279677</v>
+        <v>15.98425306218586</v>
       </c>
       <c r="F234">
-        <v>16.01612502992185</v>
+        <v>15.85053664152181</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>15.39078261017167</v>
+        <v>15.78609116992906</v>
       </c>
       <c r="C235">
-        <v>15.9216201442826</v>
+        <v>15.89811258698988</v>
       </c>
       <c r="D235">
-        <v>15.70891387832106</v>
+        <v>16.20746864728094</v>
       </c>
       <c r="E235">
-        <v>15.82264868515784</v>
+        <v>15.91989358396394</v>
       </c>
       <c r="F235">
-        <v>15.95718929689892</v>
+        <v>15.78400802937074</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>15.3229730030746</v>
+        <v>15.7227040462248</v>
       </c>
       <c r="C236">
-        <v>15.85947041102228</v>
+        <v>15.83459262929065</v>
       </c>
       <c r="D236">
-        <v>15.64727523662551</v>
+        <v>16.15021918589894</v>
       </c>
       <c r="E236">
-        <v>15.76175146007316</v>
+        <v>15.85563928594746</v>
       </c>
       <c r="F236">
-        <v>15.89836431987884</v>
+        <v>15.71754367205043</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>15.25522857321524</v>
+        <v>15.65939370312956</v>
       </c>
       <c r="C237">
-        <v>15.79740760192852</v>
+        <v>15.77114275880912</v>
       </c>
       <c r="D237">
-        <v>15.58572598494931</v>
+        <v>16.09307220753994</v>
       </c>
       <c r="E237">
-        <v>15.70093983665978</v>
+        <v>15.79149047893072</v>
       </c>
       <c r="F237">
-        <v>15.8396501673527</v>
+        <v>15.65114372282877</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>15.18754960801546</v>
+        <v>15.59616014864072</v>
       </c>
       <c r="C238">
-        <v>15.73543181103407</v>
+        <v>15.70776301892821</v>
       </c>
       <c r="D238">
-        <v>15.52426636442935</v>
+        <v>16.03602774980252</v>
       </c>
       <c r="E238">
-        <v>15.64021406524341</v>
+        <v>15.72744746921038</v>
       </c>
       <c r="F238">
-        <v>15.781046908079</v>
+        <v>15.58480833468593</v>
       </c>
     </row>
   </sheetData>
